--- a/results/knn_results.xlsx
+++ b/results/knn_results.xlsx
@@ -9460,10 +9460,10 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>0.003000307083129883</v>
+        <v>0.003200054168701172</v>
       </c>
       <c r="B2">
-        <v>0.004000377655029297</v>
+        <v>0.003600311279296875</v>
       </c>
       <c r="C2">
         <v>0.7803958529688972</v>
@@ -9520,10 +9520,10 @@
         <v>0.8940553266627428</v>
       </c>
       <c r="U2">
-        <v>9.536743164062499e-08</v>
+        <v>0.0004000663757324219</v>
       </c>
       <c r="V2">
-        <v>1.784161275279017e-07</v>
+        <v>0.0004898429878647236</v>
       </c>
       <c r="W2">
         <v>0.009601399013930163</v>
@@ -9534,10 +9534,10 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3">
-        <v>0.003000354766845703</v>
+        <v>0.003400182723999023</v>
       </c>
       <c r="B3">
-        <v>0.00460052490234375</v>
+        <v>0.004000234603881836</v>
       </c>
       <c r="C3">
         <v>0.7860508953817154</v>
@@ -9594,10 +9594,10 @@
         <v>1</v>
       </c>
       <c r="U3">
-        <v>1.168007727996434e-07</v>
+        <v>0.0008000850748536953</v>
       </c>
       <c r="V3">
-        <v>0.001200079921460192</v>
+        <v>9.536743164062499e-08</v>
       </c>
       <c r="W3">
         <v>0.006878150584933749</v>
@@ -9608,10 +9608,10 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>0.003400278091430664</v>
+        <v>0.003800392150878906</v>
       </c>
       <c r="B4">
-        <v>0.003800344467163086</v>
+        <v>0.004000043869018555</v>
       </c>
       <c r="C4">
         <v>0.6880301602262017</v>
@@ -9668,10 +9668,10 @@
         <v>0.8446144791053561</v>
       </c>
       <c r="U4">
-        <v>0.0004898235152673564</v>
+        <v>0.0003999471771024199</v>
       </c>
       <c r="V4">
-        <v>0.0004000425445315194</v>
+        <v>1.9073486328125e-07</v>
       </c>
       <c r="W4">
         <v>0.007744986187587714</v>
@@ -9682,10 +9682,10 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5">
-        <v>0.003800344467163086</v>
+        <v>0.004000329971313476</v>
       </c>
       <c r="B5">
-        <v>0.003600358963012695</v>
+        <v>0.004200124740600586</v>
       </c>
       <c r="C5">
         <v>0.6894439208294062</v>
@@ -9742,10 +9742,10 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>0.0004000425445315194</v>
+        <v>0.0006325604920650742</v>
       </c>
       <c r="V5">
-        <v>0.000489979265096882</v>
+        <v>0.0003999948892390431</v>
       </c>
       <c r="W5">
         <v>0.009486513536843513</v>
@@ -9756,10 +9756,10 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6">
-        <v>0.003200292587280273</v>
+        <v>0.003800201416015625</v>
       </c>
       <c r="B6">
-        <v>0.004000377655029297</v>
+        <v>0.004000282287597657</v>
       </c>
       <c r="C6">
         <v>0.7803958529688972</v>
@@ -9816,10 +9816,10 @@
         <v>0.8711006474396704</v>
       </c>
       <c r="U6">
-        <v>0.0004000663757324219</v>
+        <v>0.0003999710367245498</v>
       </c>
       <c r="V6">
-        <v>9.536743164062501e-08</v>
+        <v>1.168007727996434e-07</v>
       </c>
       <c r="W6">
         <v>0.0135776562103411</v>
@@ -9830,10 +9830,10 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7">
-        <v>0.003000307083129883</v>
+        <v>0.003200197219848633</v>
       </c>
       <c r="B7">
-        <v>0.004000473022460938</v>
+        <v>0.004600238800048828</v>
       </c>
       <c r="C7">
         <v>0.7865221489161168</v>
@@ -9890,10 +9890,10 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>9.536743164062499e-08</v>
+        <v>0.000399875669299688</v>
       </c>
       <c r="V7">
-        <v>1.784161275279017e-07</v>
+        <v>0.0004898430342823861</v>
       </c>
       <c r="W7">
         <v>0.01354395299414702</v>
@@ -9904,10 +9904,10 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8">
-        <v>0.003600358963012695</v>
+        <v>0.003800249099731445</v>
       </c>
       <c r="B8">
-        <v>0.003600263595581055</v>
+        <v>0.004000139236450195</v>
       </c>
       <c r="C8">
         <v>0.6913289349670122</v>
@@ -9964,10 +9964,10 @@
         <v>0.8034137728075338</v>
       </c>
       <c r="U8">
-        <v>0.0004898819214545809</v>
+        <v>0.0003999948608169696</v>
       </c>
       <c r="V8">
-        <v>0.0004899013824479931</v>
+        <v>9.536743164062499e-08</v>
       </c>
       <c r="W8">
         <v>0.007441417875980398</v>
@@ -9978,10 +9978,10 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9">
-        <v>0.003400278091430664</v>
+        <v>0.003600215911865234</v>
       </c>
       <c r="B9">
-        <v>0.004000473022460938</v>
+        <v>0.004200315475463868</v>
       </c>
       <c r="C9">
         <v>0.6946277097078228</v>
@@ -10038,10 +10038,10 @@
         <v>1</v>
       </c>
       <c r="U9">
-        <v>0.0004901155229937279</v>
+        <v>0.0004899597886342959</v>
       </c>
       <c r="V9">
-        <v>1.784161275279017e-07</v>
+        <v>0.0003998995218167223</v>
       </c>
       <c r="W9">
         <v>0.005121608588383867</v>
@@ -10052,10 +10052,10 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10">
-        <v>0.003000354766845703</v>
+        <v>0.003200197219848633</v>
       </c>
       <c r="B10">
-        <v>0.004200267791748047</v>
+        <v>0.004000234603881836</v>
       </c>
       <c r="C10">
         <v>0.7799245994344958</v>
@@ -10112,10 +10112,10 @@
         <v>0.8505002942907592</v>
       </c>
       <c r="U10">
-        <v>1.168007727996434e-07</v>
+        <v>0.0004001140736550456</v>
       </c>
       <c r="V10">
-        <v>0.0004001617431640625</v>
+        <v>9.536743164062499e-08</v>
       </c>
       <c r="W10">
         <v>0.004434779649725367</v>
@@ -10126,10 +10126,10 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11">
-        <v>0.003400278091430664</v>
+        <v>0.003200197219848633</v>
       </c>
       <c r="B11">
-        <v>0.004800605773925781</v>
+        <v>0.004600191116333007</v>
       </c>
       <c r="C11">
         <v>0.7832233741753063</v>
@@ -10186,10 +10186,10 @@
         <v>1</v>
       </c>
       <c r="U11">
-        <v>0.0004899208473093903</v>
+        <v>0.0003999948892390431</v>
       </c>
       <c r="V11">
-        <v>0.0003999710083007813</v>
+        <v>0.0004899014056540585</v>
       </c>
       <c r="W11">
         <v>0.008215520693043507</v>
@@ -10200,10 +10200,10 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12">
-        <v>0.004000282287597657</v>
+        <v>0.004000234603881836</v>
       </c>
       <c r="B12">
-        <v>0.004000473022460938</v>
+        <v>0.004000186920166016</v>
       </c>
       <c r="C12">
         <v>0.6913289349670122</v>
@@ -10260,10 +10260,10 @@
         <v>0.7704532077692761</v>
       </c>
       <c r="U12">
-        <v>1.168007727996434e-07</v>
+        <v>9.536743164062499e-08</v>
       </c>
       <c r="V12">
-        <v>9.536743164062499e-08</v>
+        <v>1.507891492923917e-07</v>
       </c>
       <c r="W12">
         <v>0.01111294857658628</v>
@@ -10274,10 +10274,10 @@
     </row>
     <row r="13" spans="1:24">
       <c r="A13">
-        <v>0.003600502014160156</v>
+        <v>0.003600215911865234</v>
       </c>
       <c r="B13">
-        <v>0.004600429534912109</v>
+        <v>0.004400253295898438</v>
       </c>
       <c r="C13">
         <v>0.6960414703110274</v>
@@ -10334,10 +10334,10 @@
         <v>1</v>
       </c>
       <c r="U13">
-        <v>0.0004899013824479931</v>
+        <v>0.0004900571400079585</v>
       </c>
       <c r="V13">
-        <v>0.0004899013824479931</v>
+        <v>0.000489979265096882</v>
       </c>
       <c r="W13">
         <v>0.005191656026055264</v>
@@ -10348,10 +10348,10 @@
     </row>
     <row r="14" spans="1:24">
       <c r="A14">
-        <v>0.003200292587280273</v>
+        <v>0.003400230407714844</v>
       </c>
       <c r="B14">
-        <v>0.00440058708190918</v>
+        <v>0.004600286483764648</v>
       </c>
       <c r="C14">
         <v>0.7822808671065034</v>
@@ -10408,10 +10408,10 @@
         <v>0.8346085932901707</v>
       </c>
       <c r="U14">
-        <v>0.0004000663757324219</v>
+        <v>0.0004899597886342959</v>
       </c>
       <c r="V14">
-        <v>0.0004899987222241536</v>
+        <v>0.0004899792418945042</v>
       </c>
       <c r="W14">
         <v>0.0158748850454039</v>
@@ -10422,10 +10422,10 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15">
-        <v>0.003400278091430664</v>
+        <v>0.003000211715698242</v>
       </c>
       <c r="B15">
-        <v>0.00460052490234375</v>
+        <v>0.005200242996215821</v>
       </c>
       <c r="C15">
         <v>0.7855796418473139</v>
@@ -10482,10 +10482,10 @@
         <v>1</v>
       </c>
       <c r="U15">
-        <v>0.000490018183218949</v>
+        <v>9.536743164062499e-08</v>
       </c>
       <c r="V15">
-        <v>0.0004900765894038697</v>
+        <v>0.000400018706226792</v>
       </c>
       <c r="W15">
         <v>0.01636324016767753</v>
@@ -10496,10 +10496,10 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16">
-        <v>0.003000259399414062</v>
+        <v>0.003800296783447266</v>
       </c>
       <c r="B16">
-        <v>0.00440058708190918</v>
+        <v>0.004600238800048828</v>
       </c>
       <c r="C16">
         <v>0.6908576814326107</v>
@@ -10556,10 +10556,10 @@
         <v>0.7557386698057681</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>0.0004000187346471713</v>
       </c>
       <c r="V16">
-        <v>0.0004898040465379741</v>
+        <v>0.0004898429878647236</v>
       </c>
       <c r="W16">
         <v>0.0148395682814703</v>
@@ -10570,10 +10570,10 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17">
-        <v>0.003200244903564453</v>
+        <v>0.004000234603881836</v>
       </c>
       <c r="B17">
-        <v>0.00480036735534668</v>
+        <v>0.004800271987915039</v>
       </c>
       <c r="C17">
         <v>0.7016965127238455</v>
@@ -10630,10 +10630,10 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>0.0003999710083007813</v>
+        <v>9.536743164062499e-08</v>
       </c>
       <c r="V17">
-        <v>0.0003999710083007813</v>
+        <v>0.0004000425729502052</v>
       </c>
       <c r="W17">
         <v>0.008997437596662838</v>
@@ -10644,10 +10644,10 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18">
-        <v>0.003000164031982422</v>
+        <v>0.003600168228149414</v>
       </c>
       <c r="B18">
-        <v>0.004600381851196289</v>
+        <v>0.004600286483764648</v>
       </c>
       <c r="C18">
         <v>0.7799245994344958</v>
@@ -10704,10 +10704,10 @@
         <v>0.8228369629193644</v>
       </c>
       <c r="U18">
-        <v>1.168007727996434e-07</v>
+        <v>0.0004899208473093903</v>
       </c>
       <c r="V18">
-        <v>0.0004899597886342959</v>
+        <v>0.0004900765894038697</v>
       </c>
       <c r="W18">
         <v>0.0093305525224254</v>
@@ -10718,10 +10718,10 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19">
-        <v>0.003200292587280273</v>
+        <v>0.003400230407714844</v>
       </c>
       <c r="B19">
-        <v>0.004800605773925781</v>
+        <v>0.004800271987915039</v>
       </c>
       <c r="C19">
         <v>0.7888784165881244</v>
@@ -10778,10 +10778,10 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>0.0004000663757324219</v>
+        <v>0.0004898624875375237</v>
       </c>
       <c r="V19">
-        <v>0.0003999710367245498</v>
+        <v>0.00039992333879854</v>
       </c>
       <c r="W19">
         <v>0.01361894394215578</v>
@@ -10792,10 +10792,10 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20">
-        <v>0.003200531005859375</v>
+        <v>0.004000234603881836</v>
       </c>
       <c r="B20">
-        <v>0.00480036735534668</v>
+        <v>0.004800224304199218</v>
       </c>
       <c r="C20">
         <v>0.6903864278982093</v>
@@ -10852,10 +10852,10 @@
         <v>0.7410241318422601</v>
       </c>
       <c r="U20">
-        <v>0.0004000663757324219</v>
+        <v>1.784161275279017e-07</v>
       </c>
       <c r="V20">
-        <v>0.0004000902282460696</v>
+        <v>0.0004001379403725326</v>
       </c>
       <c r="W20">
         <v>0.01188798794948959</v>
@@ -10866,10 +10866,10 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21">
-        <v>0.003800487518310547</v>
+        <v>0.003600263595581055</v>
       </c>
       <c r="B21">
-        <v>0.004400348663330078</v>
+        <v>0.00500020980834961</v>
       </c>
       <c r="C21">
         <v>0.700282752120641</v>
@@ -10926,10 +10926,10 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>0.0003999948608169696</v>
+        <v>0.0004898040465379741</v>
       </c>
       <c r="V21">
-        <v>0.0004899013824479931</v>
+        <v>1.168007727996434e-07</v>
       </c>
       <c r="W21">
         <v>0.0139963780747829</v>
@@ -10940,10 +10940,10 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22">
-        <v>0.003200244903564453</v>
+        <v>0.003200292587280273</v>
       </c>
       <c r="B22">
-        <v>0.004600429534912109</v>
+        <v>0.005000257492065429</v>
       </c>
       <c r="C22">
         <v>0.7799245994344958</v>
@@ -11000,10 +11000,10 @@
         <v>0.8122424955856387</v>
       </c>
       <c r="U22">
-        <v>0.0003999710083007813</v>
+        <v>0.0004000664041494148</v>
       </c>
       <c r="V22">
-        <v>0.0004899014056540585</v>
+        <v>1.168007727996434e-07</v>
       </c>
       <c r="W22">
         <v>0.006017619237117024</v>
@@ -11014,10 +11014,10 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23">
-        <v>0.003400421142578125</v>
+        <v>0.003600215911865234</v>
       </c>
       <c r="B23">
-        <v>0.004400396347045898</v>
+        <v>0.004600191116333007</v>
       </c>
       <c r="C23">
         <v>0.7879359095193214</v>
@@ -11074,10 +11074,10 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>0.0004899013824479931</v>
+        <v>0.0004898624643296147</v>
       </c>
       <c r="V23">
-        <v>0.0004900571400079585</v>
+        <v>0.0004898040465379741</v>
       </c>
       <c r="W23">
         <v>0.00467638450395815</v>
@@ -11088,10 +11088,10 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24">
-        <v>0.003600263595581055</v>
+        <v>0.003400182723999023</v>
       </c>
       <c r="B24">
-        <v>0.00460057258605957</v>
+        <v>0.00500030517578125</v>
       </c>
       <c r="C24">
         <v>0.6922714420358153</v>
@@ -11148,10 +11148,10 @@
         <v>0.7422012948793408</v>
       </c>
       <c r="U24">
-        <v>0.0004899013824479931</v>
+        <v>0.0004899987222241536</v>
       </c>
       <c r="V24">
-        <v>0.0004899208473093903</v>
+        <v>9.536743164062501e-08</v>
       </c>
       <c r="W24">
         <v>0.006674112474430548</v>
@@ -11162,10 +11162,10 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25">
-        <v>0.003600358963012695</v>
+        <v>0.004000282287597657</v>
       </c>
       <c r="B25">
-        <v>0.004600381851196289</v>
+        <v>0.004600334167480469</v>
       </c>
       <c r="C25">
         <v>0.7016965127238455</v>
@@ -11222,10 +11222,10 @@
         <v>1</v>
       </c>
       <c r="U25">
-        <v>0.000489979265096882</v>
+        <v>1.168007727996434e-07</v>
       </c>
       <c r="V25">
-        <v>0.0004898624411217045</v>
+        <v>0.0004899208705145337</v>
       </c>
       <c r="W25">
         <v>0.01006779835142889</v>
@@ -11236,10 +11236,10 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26">
-        <v>0.003000307083129883</v>
+        <v>0.003000211715698242</v>
       </c>
       <c r="B26">
-        <v>0.005000495910644531</v>
+        <v>0.005000162124633789</v>
       </c>
       <c r="C26">
         <v>0.7733270499528746</v>
@@ -11296,10 +11296,10 @@
         <v>0.8040023543260741</v>
       </c>
       <c r="U26">
+        <v>2.336015455992869e-07</v>
+      </c>
+      <c r="V26">
         <v>9.536743164062499e-08</v>
-      </c>
-      <c r="V26">
-        <v>1.9073486328125e-07</v>
       </c>
       <c r="W26">
         <v>0.004762143774540459</v>
@@ -11310,10 +11310,10 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <v>0.003000259399414062</v>
+        <v>0.003600215911865234</v>
       </c>
       <c r="B27">
-        <v>0.005000543594360351</v>
+        <v>0.005600357055664062</v>
       </c>
       <c r="C27">
         <v>0.7822808671065034</v>
@@ -11370,10 +11370,10 @@
         <v>1</v>
       </c>
       <c r="U27">
-        <v>1.507891492923917e-07</v>
+        <v>0.0004898624643296147</v>
       </c>
       <c r="V27">
-        <v>0.0006325605064430619</v>
+        <v>0.0004898040465379741</v>
       </c>
       <c r="W27">
         <v>0.003280283026269344</v>
@@ -11384,10 +11384,10 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28">
-        <v>0.003600454330444336</v>
+        <v>0.003800344467163086</v>
       </c>
       <c r="B28">
-        <v>0.0048004150390625</v>
+        <v>0.00500035285949707</v>
       </c>
       <c r="C28">
         <v>0.6932139491046183</v>
@@ -11444,10 +11444,10 @@
         <v>0.7257210123602119</v>
       </c>
       <c r="U28">
-        <v>0.000489959811837595</v>
+        <v>0.0004000425445315194</v>
       </c>
       <c r="V28">
-        <v>0.0007484811516771973</v>
+        <v>1.507891492923917e-07</v>
       </c>
       <c r="W28">
         <v>0.01350824956617009</v>
@@ -11458,10 +11458,10 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29">
-        <v>0.003400278091430664</v>
+        <v>0.004600334167480469</v>
       </c>
       <c r="B29">
-        <v>0.00480046272277832</v>
+        <v>0.007200431823730469</v>
       </c>
       <c r="C29">
         <v>0.7035815268614515</v>
@@ -11518,10 +11518,10 @@
         <v>1</v>
       </c>
       <c r="U29">
-        <v>0.0004899208473093904</v>
+        <v>0.0004899208473093903</v>
       </c>
       <c r="V29">
-        <v>0.0007483027355517388</v>
+        <v>0.002039693768171253</v>
       </c>
       <c r="W29">
         <v>0.01060559646287146</v>
@@ -11532,10 +11532,10 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30">
-        <v>0.003000354766845703</v>
+        <v>0.003400087356567383</v>
       </c>
       <c r="B30">
-        <v>0.005400514602661133</v>
+        <v>0.005600261688232422</v>
       </c>
       <c r="C30">
         <v>0.7733270499528746</v>
@@ -11592,10 +11592,10 @@
         <v>0.8051795173631549</v>
       </c>
       <c r="U30">
-        <v>1.168007727996434e-07</v>
+        <v>0.0004899792418945042</v>
       </c>
       <c r="V30">
-        <v>0.0004899987222241536</v>
+        <v>0.0008000969935623676</v>
       </c>
       <c r="W30">
         <v>0.00919165508026255</v>
@@ -11606,10 +11606,10 @@
     </row>
     <row r="31" spans="1:24">
       <c r="A31">
-        <v>0.003200340270996094</v>
+        <v>0.003000068664550781</v>
       </c>
       <c r="B31">
-        <v>0.005400466918945313</v>
+        <v>0.005800533294677735</v>
       </c>
       <c r="C31">
         <v>0.7822808671065034</v>
@@ -11666,10 +11666,10 @@
         <v>1</v>
       </c>
       <c r="U31">
-        <v>0.00039992333879854</v>
+        <v>9.536743164062499e-08</v>
       </c>
       <c r="V31">
-        <v>0.0004899403160383115</v>
+        <v>0.0003999710083007813</v>
       </c>
       <c r="W31">
         <v>0.005700635248728676</v>
@@ -11680,10 +11680,10 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32">
-        <v>0.003600358963012695</v>
+        <v>0.004000329971313476</v>
       </c>
       <c r="B32">
-        <v>0.005200529098510742</v>
+        <v>0.005200242996215821</v>
       </c>
       <c r="C32">
         <v>0.6899151743638078</v>
@@ -11740,10 +11740,10 @@
         <v>0.731606827545615</v>
       </c>
       <c r="U32">
-        <v>0.0004898819214545809</v>
+        <v>1.168007727996434e-07</v>
       </c>
       <c r="V32">
-        <v>0.000400114102068651</v>
+        <v>0.0004001379119606201</v>
       </c>
       <c r="W32">
         <v>0.01625804838615477</v>
@@ -11754,10 +11754,10 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33">
-        <v>0.003800392150878906</v>
+        <v>0.004000282287597657</v>
       </c>
       <c r="B33">
-        <v>0.006600666046142578</v>
+        <v>0.006600332260131836</v>
       </c>
       <c r="C33">
         <v>0.6979264844486334</v>
@@ -11814,10 +11814,10 @@
         <v>1</v>
       </c>
       <c r="U33">
-        <v>0.0004000664041494148</v>
+        <v>1.9073486328125e-07</v>
       </c>
       <c r="V33">
-        <v>0.0007999777842735448</v>
+        <v>0.00205925004721915</v>
       </c>
       <c r="W33">
         <v>0.01278198471486259</v>
@@ -11828,10 +11828,10 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34">
-        <v>0.003200292587280273</v>
+        <v>0.003600263595581055</v>
       </c>
       <c r="B34">
-        <v>0.006000614166259766</v>
+        <v>0.007000303268432618</v>
       </c>
       <c r="C34">
         <v>0.7719132893496701</v>
@@ -11888,10 +11888,10 @@
         <v>0.7928193054738081</v>
       </c>
       <c r="U34">
-        <v>0.0003999471771024199</v>
+        <v>0.0008002042823662843</v>
       </c>
       <c r="V34">
-        <v>0.0008946289424085347</v>
+        <v>0.001095409252412302</v>
       </c>
       <c r="W34">
         <v>0.01338098392146771</v>
@@ -11902,10 +11902,10 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35">
-        <v>0.003200292587280273</v>
+        <v>0.003600120544433594</v>
       </c>
       <c r="B35">
-        <v>0.005600547790527344</v>
+        <v>0.005400419235229492</v>
       </c>
       <c r="C35">
         <v>0.7818096135721018</v>
@@ -11962,10 +11962,10 @@
         <v>1</v>
       </c>
       <c r="U35">
-        <v>0.0004000664041494148</v>
+        <v>0.0004898819214545809</v>
       </c>
       <c r="V35">
-        <v>0.0004899597886342959</v>
+        <v>0.0004897845816770382</v>
       </c>
       <c r="W35">
         <v>0.007892488891801639</v>
@@ -11976,10 +11976,10 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36">
-        <v>0.003800439834594727</v>
+        <v>0.004000234603881836</v>
       </c>
       <c r="B36">
-        <v>0.005200529098510742</v>
+        <v>0.005400371551513672</v>
       </c>
       <c r="C36">
         <v>0.6908576814326107</v>
@@ -12036,10 +12036,10 @@
         <v>0.7180694526191878</v>
       </c>
       <c r="U36">
-        <v>0.0003999710083007813</v>
+        <v>9.536743164062501e-08</v>
       </c>
       <c r="V36">
-        <v>0.0003999948608169695</v>
+        <v>0.0004899208473093904</v>
       </c>
       <c r="W36">
         <v>0.01893746511590425</v>
@@ -12050,10 +12050,10 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37">
-        <v>0.003600406646728516</v>
+        <v>0.004000329971313476</v>
       </c>
       <c r="B37">
-        <v>0.005000543594360351</v>
+        <v>0.005600214004516602</v>
       </c>
       <c r="C37">
         <v>0.6969839773798303</v>
@@ -12110,10 +12110,10 @@
         <v>1</v>
       </c>
       <c r="U37">
-        <v>0.0004901155229937279</v>
+        <v>1.168007727996434e-07</v>
       </c>
       <c r="V37">
-        <v>1.784161275279017e-07</v>
+        <v>0.0004898819214545809</v>
       </c>
       <c r="W37">
         <v>0.01262861139782328</v>
@@ -12124,10 +12124,10 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38">
-        <v>0.003000307083129883</v>
+        <v>0.003400182723999023</v>
       </c>
       <c r="B38">
-        <v>0.006400632858276367</v>
+        <v>0.006600475311279297</v>
       </c>
       <c r="C38">
         <v>0.7803958529688972</v>
@@ -12184,10 +12184,10 @@
         <v>0.8940553266627428</v>
       </c>
       <c r="U38">
-        <v>9.536743164062499e-08</v>
+        <v>0.0004899013824479931</v>
       </c>
       <c r="V38">
-        <v>0.0004900376480808073</v>
+        <v>0.0004898624411217045</v>
       </c>
       <c r="W38">
         <v>0.009601399013930163</v>
@@ -12198,10 +12198,10 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39">
-        <v>0.002800178527832031</v>
+        <v>0.003600025177001953</v>
       </c>
       <c r="B39">
-        <v>0.006400728225708007</v>
+        <v>0.007000446319580078</v>
       </c>
       <c r="C39">
         <v>0.7860508953817154</v>
@@ -12258,10 +12258,10 @@
         <v>1</v>
       </c>
       <c r="U39">
-        <v>0.0004000425729502052</v>
+        <v>0.0004899013824479931</v>
       </c>
       <c r="V39">
-        <v>0.0004899597886342959</v>
+        <v>0.0006325604812815834</v>
       </c>
       <c r="W39">
         <v>0.006878150584933749</v>
@@ -12272,10 +12272,10 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40">
-        <v>0.003000307083129883</v>
+        <v>0.003400230407714844</v>
       </c>
       <c r="B40">
-        <v>0.006000566482543945</v>
+        <v>0.006600332260131836</v>
       </c>
       <c r="C40">
         <v>0.6880301602262017</v>
@@ -12332,10 +12332,10 @@
         <v>0.8446144791053561</v>
       </c>
       <c r="U40">
-        <v>9.536743164062501e-08</v>
+        <v>0.0004899597886342959</v>
       </c>
       <c r="V40">
-        <v>1.784161275279017e-07</v>
+        <v>0.0004899403160383116</v>
       </c>
       <c r="W40">
         <v>0.007744986187587714</v>
@@ -12346,10 +12346,10 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41">
-        <v>0.003200292587280273</v>
+        <v>0.003200101852416992</v>
       </c>
       <c r="B41">
-        <v>0.006000518798828125</v>
+        <v>0.007000398635864258</v>
       </c>
       <c r="C41">
         <v>0.6894439208294062</v>
@@ -12406,10 +12406,10 @@
         <v>1</v>
       </c>
       <c r="U41">
-        <v>0.0003999471771024199</v>
+        <v>0.0004000425445315194</v>
       </c>
       <c r="V41">
-        <v>2.132480599880018e-07</v>
+        <v>9.536743164062499e-08</v>
       </c>
       <c r="W41">
         <v>0.009486513536843513</v>
@@ -12420,10 +12420,10 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42">
-        <v>0.003000450134277344</v>
+        <v>0.003000164031982422</v>
       </c>
       <c r="B42">
-        <v>0.00700068473815918</v>
+        <v>0.00760045051574707</v>
       </c>
       <c r="C42">
         <v>0.7803958529688972</v>
@@ -12480,10 +12480,10 @@
         <v>0.8711006474396704</v>
       </c>
       <c r="U42">
-        <v>9.536743164062501e-08</v>
+        <v>1.9073486328125e-07</v>
       </c>
       <c r="V42">
-        <v>1.507891492923917e-07</v>
+        <v>0.0008001446808299682</v>
       </c>
       <c r="W42">
         <v>0.0135776562103411</v>
@@ -12494,10 +12494,10 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43">
-        <v>0.003000259399414062</v>
+        <v>0.003400135040283203</v>
       </c>
       <c r="B43">
-        <v>0.007000780105590821</v>
+        <v>0.00720052719116211</v>
       </c>
       <c r="C43">
         <v>0.7865221489161168</v>
@@ -12554,10 +12554,10 @@
         <v>1</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>0.0004899403160383116</v>
       </c>
       <c r="V43">
-        <v>1.168007727996434e-07</v>
+        <v>0.0004000425729502052</v>
       </c>
       <c r="W43">
         <v>0.01354395299414702</v>
@@ -12568,10 +12568,10 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44">
-        <v>0.003200292587280273</v>
+        <v>0.003000354766845703</v>
       </c>
       <c r="B44">
-        <v>0.006400632858276367</v>
+        <v>0.006600284576416015</v>
       </c>
       <c r="C44">
         <v>0.6913289349670122</v>
@@ -12628,10 +12628,10 @@
         <v>0.8034137728075338</v>
       </c>
       <c r="U44">
-        <v>0.0004001855956751709</v>
+        <v>1.168007727996434e-07</v>
       </c>
       <c r="V44">
-        <v>0.0004899403160383116</v>
+        <v>0.0004899014056540585</v>
       </c>
       <c r="W44">
         <v>0.007441417875980398</v>
@@ -12642,10 +12642,10 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45">
-        <v>0.003000259399414062</v>
+        <v>0.003000068664550781</v>
       </c>
       <c r="B45">
-        <v>0.006800699234008789</v>
+        <v>0.007200431823730469</v>
       </c>
       <c r="C45">
         <v>0.6946277097078228</v>
@@ -12702,10 +12702,10 @@
         <v>1</v>
       </c>
       <c r="U45">
-        <v>1.507891492923917e-07</v>
+        <v>0.000632409699322999</v>
       </c>
       <c r="V45">
-        <v>0.0004000902566613683</v>
+        <v>0.0004000902282460696</v>
       </c>
       <c r="W45">
         <v>0.005121608588383867</v>
@@ -12716,10 +12716,10 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46">
-        <v>0.003000259399414062</v>
+        <v>0.003200197219848633</v>
       </c>
       <c r="B46">
-        <v>0.007200717926025391</v>
+        <v>0.007800483703613281</v>
       </c>
       <c r="C46">
         <v>0.7799245994344958</v>
@@ -12776,10 +12776,10 @@
         <v>0.8505002942907592</v>
       </c>
       <c r="U46">
-        <v>1.507891492923917e-07</v>
+        <v>0.0004001140736550456</v>
       </c>
       <c r="V46">
-        <v>0.0004000664041494148</v>
+        <v>0.000400018706226792</v>
       </c>
       <c r="W46">
         <v>0.004434779649725367</v>
@@ -12790,10 +12790,10 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47">
-        <v>0.002800273895263672</v>
+        <v>0.003200244903564453</v>
       </c>
       <c r="B47">
-        <v>0.007200717926025391</v>
+        <v>0.007800436019897461</v>
       </c>
       <c r="C47">
         <v>0.7832233741753063</v>
@@ -12850,10 +12850,10 @@
         <v>1</v>
       </c>
       <c r="U47">
-        <v>0.0004000902282460696</v>
+        <v>0.0003999710367245498</v>
       </c>
       <c r="V47">
-        <v>0.0004000664041494148</v>
+        <v>0.00074841743108988</v>
       </c>
       <c r="W47">
         <v>0.008215520693043507</v>
@@ -12864,10 +12864,10 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48">
-        <v>0.003000497817993164</v>
+        <v>0.003200149536132812</v>
       </c>
       <c r="B48">
-        <v>0.006800508499145508</v>
+        <v>0.007000398635864258</v>
       </c>
       <c r="C48">
         <v>0.6913289349670122</v>
@@ -12924,10 +12924,10 @@
         <v>0.7704532077692761</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>0.000400018706226792</v>
       </c>
       <c r="V48">
-        <v>0.0003999948608169695</v>
+        <v>0.0006324851073777583</v>
       </c>
       <c r="W48">
         <v>0.01111294857658628</v>
@@ -12938,10 +12938,10 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49">
-        <v>0.002800369262695313</v>
+        <v>0.003000211715698242</v>
       </c>
       <c r="B49">
-        <v>0.007000637054443359</v>
+        <v>0.00780034065246582</v>
       </c>
       <c r="C49">
         <v>0.6960414703110274</v>
@@ -12998,10 +12998,10 @@
         <v>1</v>
       </c>
       <c r="U49">
-        <v>0.0004001379119606201</v>
+        <v>9.536743164062499e-08</v>
       </c>
       <c r="V49">
-        <v>2.336015455992869e-07</v>
+        <v>0.0007483282192290589</v>
       </c>
       <c r="W49">
         <v>0.005191656026055264</v>
@@ -13012,10 +13012,10 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50">
-        <v>0.002600383758544922</v>
+        <v>0.003400230407714844</v>
       </c>
       <c r="B50">
-        <v>0.007800674438476563</v>
+        <v>0.008200454711914062</v>
       </c>
       <c r="C50">
         <v>0.7822808671065034</v>
@@ -13072,10 +13072,10 @@
         <v>0.8346085932901707</v>
       </c>
       <c r="U50">
-        <v>0.0004898429878647236</v>
+        <v>0.000489959811837595</v>
       </c>
       <c r="V50">
-        <v>0.0003999948608169695</v>
+        <v>0.0004001617431640625</v>
       </c>
       <c r="W50">
         <v>0.0158748850454039</v>
@@ -13086,10 +13086,10 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51">
-        <v>0.002800273895263672</v>
+        <v>0.003400230407714844</v>
       </c>
       <c r="B51">
-        <v>0.007600736618041992</v>
+        <v>0.008800411224365234</v>
       </c>
       <c r="C51">
         <v>0.7855796418473139</v>
@@ -13146,10 +13146,10 @@
         <v>1</v>
       </c>
       <c r="U51">
-        <v>0.0004000902282460696</v>
+        <v>0.001019823510419211</v>
       </c>
       <c r="V51">
-        <v>0.0004899403160383116</v>
+        <v>0.000748366450713617</v>
       </c>
       <c r="W51">
         <v>0.01636324016767753</v>
@@ -13160,10 +13160,10 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52">
-        <v>0.003000259399414062</v>
+        <v>0.003600168228149414</v>
       </c>
       <c r="B52">
-        <v>0.007200717926025391</v>
+        <v>0.01040067672729492</v>
       </c>
       <c r="C52">
         <v>0.6908576814326107</v>
@@ -13220,10 +13220,10 @@
         <v>0.7557386698057681</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>0.0004899208473093904</v>
       </c>
       <c r="V52">
-        <v>0.0003999471771024199</v>
+        <v>0.00119999250460435</v>
       </c>
       <c r="W52">
         <v>0.0148395682814703</v>
@@ -13234,10 +13234,10 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53">
-        <v>0.002400302886962891</v>
+        <v>0.004000186920166016</v>
       </c>
       <c r="B53">
-        <v>0.007600831985473633</v>
+        <v>0.01020054817199707</v>
       </c>
       <c r="C53">
         <v>0.7016965127238455</v>
@@ -13294,10 +13294,10 @@
         <v>1</v>
       </c>
       <c r="U53">
-        <v>0.0004898624643296147</v>
+        <v>0.000894522310755241</v>
       </c>
       <c r="V53">
-        <v>0.0004899208705145337</v>
+        <v>0.001469769022337077</v>
       </c>
       <c r="W53">
         <v>0.008997437596662838</v>
@@ -13308,10 +13308,10 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54">
-        <v>0.003200292587280273</v>
+        <v>0.003800296783447266</v>
       </c>
       <c r="B54">
-        <v>0.008000802993774415</v>
+        <v>0.01100068092346191</v>
       </c>
       <c r="C54">
         <v>0.7799245994344958</v>
@@ -13368,10 +13368,10 @@
         <v>0.8228369629193644</v>
       </c>
       <c r="U54">
-        <v>0.0004000664041494148</v>
+        <v>0.00116620399811365</v>
       </c>
       <c r="V54">
-        <v>1.784161275279017e-07</v>
+        <v>0.001095539845353049</v>
       </c>
       <c r="W54">
         <v>0.0093305525224254</v>
@@ -13382,10 +13382,10 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55">
-        <v>0.003000354766845703</v>
+        <v>0.003600120544433594</v>
       </c>
       <c r="B55">
-        <v>0.008200836181640626</v>
+        <v>0.01020069122314453</v>
       </c>
       <c r="C55">
         <v>0.7888784165881244</v>
@@ -13442,10 +13442,10 @@
         <v>1</v>
       </c>
       <c r="U55">
-        <v>0.0006324850929980568</v>
+        <v>0.0004898819214545809</v>
       </c>
       <c r="V55">
-        <v>0.0004000902282460696</v>
+        <v>0.0007484046832832702</v>
       </c>
       <c r="W55">
         <v>0.01361894394215578</v>
@@ -13456,10 +13456,10 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56">
-        <v>0.003000259399414062</v>
+        <v>0.003200292587280273</v>
       </c>
       <c r="B56">
-        <v>0.007400798797607422</v>
+        <v>0.00780034065246582</v>
       </c>
       <c r="C56">
         <v>0.6903864278982093</v>
@@ -13516,10 +13516,10 @@
         <v>0.7410241318422601</v>
       </c>
       <c r="U56">
-        <v>1.507891492923917e-07</v>
+        <v>0.0003998279998042267</v>
       </c>
       <c r="V56">
-        <v>0.0004898429878647236</v>
+        <v>0.0007483282192290589</v>
       </c>
       <c r="W56">
         <v>0.01188798794948959</v>
@@ -13530,10 +13530,10 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57">
-        <v>0.003000259399414062</v>
+        <v>0.003200101852416992</v>
       </c>
       <c r="B57">
-        <v>0.007800817489624023</v>
+        <v>0.007800579071044922</v>
       </c>
       <c r="C57">
         <v>0.700282752120641</v>
@@ -13590,10 +13590,10 @@
         <v>1</v>
       </c>
       <c r="U57">
-        <v>0.0006324851001879076</v>
+        <v>0.0004000425445315194</v>
       </c>
       <c r="V57">
-        <v>0.0003999471771024199</v>
+        <v>0.0004000663757324219</v>
       </c>
       <c r="W57">
         <v>0.0139963780747829</v>
@@ -13604,10 +13604,10 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58">
-        <v>0.002800226211547852</v>
+        <v>0.003200101852416992</v>
       </c>
       <c r="B58">
-        <v>0.008200883865356445</v>
+        <v>0.009000492095947266</v>
       </c>
       <c r="C58">
         <v>0.7799245994344958</v>
@@ -13664,10 +13664,10 @@
         <v>0.8122424955856387</v>
       </c>
       <c r="U58">
-        <v>0.0004000663757324219</v>
+        <v>0.0004001617431640625</v>
       </c>
       <c r="V58">
-        <v>0.0004000663757324219</v>
+        <v>0.001095539855730293</v>
       </c>
       <c r="W58">
         <v>0.006017619237117024</v>
@@ -13678,10 +13678,10 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59">
-        <v>0.003000307083129883</v>
+        <v>0.003200101852416992</v>
       </c>
       <c r="B59">
-        <v>0.008800840377807618</v>
+        <v>0.009000635147094727</v>
       </c>
       <c r="C59">
         <v>0.7879359095193214</v>
@@ -13738,10 +13738,10 @@
         <v>1</v>
       </c>
       <c r="U59">
-        <v>9.536743164062499e-08</v>
+        <v>0.0004000425445315194</v>
       </c>
       <c r="V59">
-        <v>0.000400114102068651</v>
+        <v>0.0006324851109726836</v>
       </c>
       <c r="W59">
         <v>0.00467638450395815</v>
@@ -13752,10 +13752,10 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60">
-        <v>0.002600288391113281</v>
+        <v>0.003200244903564453</v>
       </c>
       <c r="B60">
-        <v>0.008000802993774415</v>
+        <v>0.008200359344482423</v>
       </c>
       <c r="C60">
         <v>0.6922714420358153</v>
@@ -13812,10 +13812,10 @@
         <v>0.7422012948793408</v>
       </c>
       <c r="U60">
-        <v>0.0004897651206850096</v>
+        <v>0.0004000902566613683</v>
       </c>
       <c r="V60">
-        <v>1.784161275279017e-07</v>
+        <v>0.0007482772388520198</v>
       </c>
       <c r="W60">
         <v>0.006674112474430548</v>
@@ -13826,10 +13826,10 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61">
-        <v>0.003000307083129883</v>
+        <v>0.003200149536132812</v>
       </c>
       <c r="B61">
-        <v>0.008200788497924804</v>
+        <v>0.008800554275512695</v>
       </c>
       <c r="C61">
         <v>0.7016965127238455</v>
@@ -13886,10 +13886,10 @@
         <v>1</v>
       </c>
       <c r="U61">
-        <v>9.536743164062499e-08</v>
+        <v>0.000400018706226792</v>
       </c>
       <c r="V61">
-        <v>0.0003999948608169695</v>
+        <v>0.0003999710083007813</v>
       </c>
       <c r="W61">
         <v>0.01006779835142889</v>
@@ -13900,10 +13900,10 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62">
-        <v>0.002800321578979492</v>
+        <v>0.003000354766845703</v>
       </c>
       <c r="B62">
-        <v>0.008600854873657226</v>
+        <v>0.009600400924682617</v>
       </c>
       <c r="C62">
         <v>0.7733270499528746</v>
@@ -13960,10 +13960,10 @@
         <v>0.8040023543260741</v>
       </c>
       <c r="U62">
-        <v>0.000748353705076902</v>
+        <v>1.9073486328125e-07</v>
       </c>
       <c r="V62">
-        <v>0.0004899013824479931</v>
+        <v>0.000489979265096882</v>
       </c>
       <c r="W62">
         <v>0.004762143774540459</v>
@@ -13974,10 +13974,10 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63">
-        <v>0.003000259399414062</v>
+        <v>0.003000211715698242</v>
       </c>
       <c r="B63">
-        <v>0.008400821685791015</v>
+        <v>0.009200572967529297</v>
       </c>
       <c r="C63">
         <v>0.7822808671065034</v>
@@ -14034,10 +14034,10 @@
         <v>1</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>1.784161275279017e-07</v>
       </c>
       <c r="V63">
-        <v>0.0004900571168092678</v>
+        <v>0.0004000664041494148</v>
       </c>
       <c r="W63">
         <v>0.003280283026269344</v>
@@ -14048,10 +14048,10 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64">
-        <v>0.003000259399414062</v>
+        <v>0.003000211715698242</v>
       </c>
       <c r="B64">
-        <v>0.008200883865356445</v>
+        <v>0.008800554275512695</v>
       </c>
       <c r="C64">
         <v>0.6932139491046183</v>
@@ -14108,10 +14108,10 @@
         <v>0.7257210123602119</v>
       </c>
       <c r="U64">
-        <v>1.507891492923917e-07</v>
+        <v>9.536743164062499e-08</v>
       </c>
       <c r="V64">
-        <v>0.0003999472055278821</v>
+        <v>0.0007483409713765852</v>
       </c>
       <c r="W64">
         <v>0.01350824956617009</v>
@@ -14122,10 +14122,10 @@
     </row>
     <row r="65" spans="1:24">
       <c r="A65">
-        <v>0.003000354766845703</v>
+        <v>0.003000116348266601</v>
       </c>
       <c r="B65">
-        <v>0.008400821685791015</v>
+        <v>0.009000492095947266</v>
       </c>
       <c r="C65">
         <v>0.7035815268614515</v>
@@ -14182,10 +14182,10 @@
         <v>1</v>
       </c>
       <c r="U65">
-        <v>1.168007727996434e-07</v>
+        <v>1.9073486328125e-07</v>
       </c>
       <c r="V65">
-        <v>0.0004899597886342959</v>
+        <v>0.000632635878551781</v>
       </c>
       <c r="W65">
         <v>0.01060559646287146</v>
@@ -14196,10 +14196,10 @@
     </row>
     <row r="66" spans="1:24">
       <c r="A66">
-        <v>0.003000354766845703</v>
+        <v>0.003200101852416992</v>
       </c>
       <c r="B66">
-        <v>0.009600973129272461</v>
+        <v>0.009600639343261719</v>
       </c>
       <c r="C66">
         <v>0.7733270499528746</v>
@@ -14256,10 +14256,10 @@
         <v>0.8051795173631549</v>
       </c>
       <c r="U66">
-        <v>1.168007727996434e-07</v>
+        <v>0.00039992333879854</v>
       </c>
       <c r="V66">
-        <v>0.0004901544488522248</v>
+        <v>0.0004898819214545809</v>
       </c>
       <c r="W66">
         <v>0.00919165508026255</v>
@@ -14270,10 +14270,10 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67">
-        <v>0.003200292587280273</v>
+        <v>0.003200197219848633</v>
       </c>
       <c r="B67">
-        <v>0.00940098762512207</v>
+        <v>0.009800481796264648</v>
       </c>
       <c r="C67">
         <v>0.7822808671065034</v>
@@ -14330,10 +14330,10 @@
         <v>1</v>
       </c>
       <c r="U67">
-        <v>0.0004000663757324219</v>
+        <v>0.0004001140736550456</v>
       </c>
       <c r="V67">
-        <v>0.0004898624411217045</v>
+        <v>0.0004000902282460696</v>
       </c>
       <c r="W67">
         <v>0.005700635248728676</v>
@@ -14344,10 +14344,10 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68">
-        <v>0.003000307083129883</v>
+        <v>0.003000164031982422</v>
       </c>
       <c r="B68">
-        <v>0.008600902557373048</v>
+        <v>0.009000492095947266</v>
       </c>
       <c r="C68">
         <v>0.6899151743638078</v>
@@ -14404,10 +14404,10 @@
         <v>0.731606827545615</v>
       </c>
       <c r="U68">
-        <v>9.536743164062499e-08</v>
+        <v>1.168007727996434e-07</v>
       </c>
       <c r="V68">
-        <v>0.0004899403160383116</v>
+        <v>0.000632409699322999</v>
       </c>
       <c r="W68">
         <v>0.01625804838615477</v>
@@ -14418,10 +14418,10 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69">
-        <v>0.002800273895263672</v>
+        <v>0.003400087356567383</v>
       </c>
       <c r="B69">
-        <v>0.009000825881958007</v>
+        <v>0.01040067672729492</v>
       </c>
       <c r="C69">
         <v>0.6979264844486334</v>
@@ -14478,10 +14478,10 @@
         <v>1</v>
       </c>
       <c r="U69">
-        <v>0.0003998518381055636</v>
+        <v>0.0008000135475042733</v>
       </c>
       <c r="V69">
-        <v>2.336015455992868e-07</v>
+        <v>0.00120011170955142</v>
       </c>
       <c r="W69">
         <v>0.01278198471486259</v>
@@ -14495,7 +14495,7 @@
         <v>0.003000211715698242</v>
       </c>
       <c r="B70">
-        <v>0.00940098762512207</v>
+        <v>0.01000056266784668</v>
       </c>
       <c r="C70">
         <v>0.7719132893496701</v>
@@ -14552,10 +14552,10 @@
         <v>0.7928193054738081</v>
       </c>
       <c r="U70">
-        <v>9.536743164062501e-08</v>
+        <v>2.336015455992868e-07</v>
       </c>
       <c r="V70">
-        <v>0.0004899597886342959</v>
+        <v>1.168007727996434e-07</v>
       </c>
       <c r="W70">
         <v>0.01338098392146771</v>
@@ -14566,10 +14566,10 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71">
-        <v>0.003000259399414062</v>
+        <v>0.003000020980834961</v>
       </c>
       <c r="B71">
-        <v>0.009001016616821289</v>
+        <v>0.009600543975830078</v>
       </c>
       <c r="C71">
         <v>0.7818096135721018</v>
@@ -14629,7 +14629,7 @@
         <v>0</v>
       </c>
       <c r="V71">
-        <v>0</v>
+        <v>0.0004899987222241536</v>
       </c>
       <c r="W71">
         <v>0.007892488891801639</v>
@@ -14640,10 +14640,10 @@
     </row>
     <row r="72" spans="1:24">
       <c r="A72">
-        <v>0.003000259399414062</v>
+        <v>0.003400087356567383</v>
       </c>
       <c r="B72">
-        <v>0.01080112457275391</v>
+        <v>0.00980062484741211</v>
       </c>
       <c r="C72">
         <v>0.6908576814326107</v>
@@ -14700,10 +14700,10 @@
         <v>0.7180694526191878</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>0.0008000135475042733</v>
       </c>
       <c r="V72">
-        <v>0.001939226493473652</v>
+        <v>0.002135542235033664</v>
       </c>
       <c r="W72">
         <v>0.01893746511590425</v>
@@ -14714,10 +14714,10 @@
     </row>
     <row r="73" spans="1:24">
       <c r="A73">
-        <v>0.003200340270996094</v>
+        <v>0.003200101852416992</v>
       </c>
       <c r="B73">
-        <v>0.008400869369506837</v>
+        <v>0.009000492095947266</v>
       </c>
       <c r="C73">
         <v>0.6969839773798303</v>
@@ -14777,7 +14777,7 @@
         <v>0.0004000425445315194</v>
       </c>
       <c r="V73">
-        <v>0.000490018183218949</v>
+        <v>1.784161275279017e-07</v>
       </c>
       <c r="W73">
         <v>0.01262861139782328</v>
@@ -14788,10 +14788,10 @@
     </row>
     <row r="74" spans="1:24">
       <c r="A74">
-        <v>0.003600406646728516</v>
+        <v>0.002800083160400391</v>
       </c>
       <c r="B74">
-        <v>0.003400325775146484</v>
+        <v>0.004000329971313476</v>
       </c>
       <c r="C74">
         <v>0.7803958529688972</v>
@@ -14848,10 +14848,10 @@
         <v>0.8940553266627428</v>
       </c>
       <c r="U74">
-        <v>0.000490018183218949</v>
+        <v>0.0003998756408691406</v>
       </c>
       <c r="V74">
-        <v>0.000489979265096882</v>
+        <v>1.168007727996434e-07</v>
       </c>
       <c r="W74">
         <v>0.009601399013930163</v>
@@ -14862,10 +14862,10 @@
     </row>
     <row r="75" spans="1:24">
       <c r="A75">
-        <v>0.003200292587280273</v>
+        <v>0.003200101852416992</v>
       </c>
       <c r="B75">
-        <v>0.003600406646728516</v>
+        <v>0.003600168228149414</v>
       </c>
       <c r="C75">
         <v>0.7860508953817154</v>
@@ -14922,10 +14922,10 @@
         <v>1</v>
       </c>
       <c r="U75">
-        <v>0.0004000664041494148</v>
+        <v>0.0004000425445315194</v>
       </c>
       <c r="V75">
-        <v>0.0004900182064194829</v>
+        <v>0.000490018183218949</v>
       </c>
       <c r="W75">
         <v>0.006878150584933749</v>
@@ -14936,10 +14936,10 @@
     </row>
     <row r="76" spans="1:24">
       <c r="A76">
-        <v>0.003600358963012695</v>
+        <v>0.004200220108032227</v>
       </c>
       <c r="B76">
-        <v>0.003800249099731445</v>
+        <v>0.004600286483764648</v>
       </c>
       <c r="C76">
         <v>0.6880301602262017</v>
@@ -14996,10 +14996,10 @@
         <v>0.8446144791053561</v>
       </c>
       <c r="U76">
-        <v>0.0004900765894038697</v>
+        <v>0.0007484556549795477</v>
       </c>
       <c r="V76">
-        <v>0.0004001140736550456</v>
+        <v>0.000489979265096882</v>
       </c>
       <c r="W76">
         <v>0.007744986187587714</v>
@@ -15010,10 +15010,10 @@
     </row>
     <row r="77" spans="1:24">
       <c r="A77">
-        <v>0.003600311279296875</v>
+        <v>0.003800058364868164</v>
       </c>
       <c r="B77">
-        <v>0.003400278091430664</v>
+        <v>0.004000282287597657</v>
       </c>
       <c r="C77">
         <v>0.6894439208294062</v>
@@ -15070,10 +15070,10 @@
         <v>1</v>
       </c>
       <c r="U77">
-        <v>0.000489940339242533</v>
+        <v>0.000400018706226792</v>
       </c>
       <c r="V77">
-        <v>0.0004900182064194829</v>
+        <v>1.168007727996434e-07</v>
       </c>
       <c r="W77">
         <v>0.009486513536843513</v>
@@ -15084,10 +15084,10 @@
     </row>
     <row r="78" spans="1:24">
       <c r="A78">
-        <v>0.003000259399414062</v>
+        <v>0.003000211715698242</v>
       </c>
       <c r="B78">
-        <v>0.004000329971313476</v>
+        <v>0.004200172424316406</v>
       </c>
       <c r="C78">
         <v>0.7803958529688972</v>
@@ -15144,10 +15144,10 @@
         <v>0.8711006474396704</v>
       </c>
       <c r="U78">
-        <v>0</v>
+        <v>1.784161275279017e-07</v>
       </c>
       <c r="V78">
-        <v>1.168007727996434e-07</v>
+        <v>0.0003999710367245498</v>
       </c>
       <c r="W78">
         <v>0.0135776562103411</v>
@@ -15158,10 +15158,10 @@
     </row>
     <row r="79" spans="1:24">
       <c r="A79">
-        <v>0.003000259399414062</v>
+        <v>0.003600263595581055</v>
       </c>
       <c r="B79">
-        <v>0.004200458526611328</v>
+        <v>0.004000234603881836</v>
       </c>
       <c r="C79">
         <v>0.7865221489161168</v>
@@ -15218,10 +15218,10 @@
         <v>1</v>
       </c>
       <c r="U79">
-        <v>1.507891492923917e-07</v>
+        <v>0.0008000254786468755</v>
       </c>
       <c r="V79">
-        <v>0.0003999471771024199</v>
+        <v>0.0006324850894031313</v>
       </c>
       <c r="W79">
         <v>0.01354395299414702</v>
@@ -15232,10 +15232,10 @@
     </row>
     <row r="80" spans="1:24">
       <c r="A80">
-        <v>0.003600311279296875</v>
+        <v>0.003800249099731445</v>
       </c>
       <c r="B80">
-        <v>0.003400421142578125</v>
+        <v>0.004000139236450195</v>
       </c>
       <c r="C80">
         <v>0.6913289349670122</v>
@@ -15292,10 +15292,10 @@
         <v>0.8034137728075338</v>
       </c>
       <c r="U80">
-        <v>0.0004900376712804197</v>
+        <v>0.0007484811516771973</v>
       </c>
       <c r="V80">
-        <v>0.000489998745425609</v>
+        <v>9.536743164062499e-08</v>
       </c>
       <c r="W80">
         <v>0.007441417875980398</v>
@@ -15306,10 +15306,10 @@
     </row>
     <row r="81" spans="1:24">
       <c r="A81">
-        <v>0.003400325775146484</v>
+        <v>0.003600215911865234</v>
       </c>
       <c r="B81">
-        <v>0.004000377655029297</v>
+        <v>0.004200267791748047</v>
       </c>
       <c r="C81">
         <v>0.6946277097078228</v>
@@ -15366,10 +15366,10 @@
         <v>1</v>
       </c>
       <c r="U81">
-        <v>0.0004898819214545809</v>
+        <v>0.0004899597886342959</v>
       </c>
       <c r="V81">
-        <v>1.784161275279017e-07</v>
+        <v>0.00039992333879854</v>
       </c>
       <c r="W81">
         <v>0.005121608588383867</v>
@@ -15380,10 +15380,10 @@
     </row>
     <row r="82" spans="1:24">
       <c r="A82">
-        <v>0.003000307083129883</v>
+        <v>0.003600215911865234</v>
       </c>
       <c r="B82">
-        <v>0.004000473022460938</v>
+        <v>0.004400300979614258</v>
       </c>
       <c r="C82">
         <v>0.7799245994344958</v>
@@ -15440,10 +15440,10 @@
         <v>0.8505002942907592</v>
       </c>
       <c r="U82">
-        <v>9.536743164062499e-08</v>
+        <v>0.0004899597886342959</v>
       </c>
       <c r="V82">
-        <v>1.784161275279017e-07</v>
+        <v>0.000489940339242533</v>
       </c>
       <c r="W82">
         <v>0.004434779649725367</v>
@@ -15454,10 +15454,10 @@
     </row>
     <row r="83" spans="1:24">
       <c r="A83">
-        <v>0.003400278091430664</v>
+        <v>0.003600168228149414</v>
       </c>
       <c r="B83">
-        <v>0.00440053939819336</v>
+        <v>0.004800271987915039</v>
       </c>
       <c r="C83">
         <v>0.7832233741753063</v>
@@ -15514,10 +15514,10 @@
         <v>1</v>
       </c>
       <c r="U83">
-        <v>0.000490018183218949</v>
+        <v>0.0004899208705145337</v>
       </c>
       <c r="V83">
-        <v>0.0004900376480808073</v>
+        <v>0.0004000425445315194</v>
       </c>
       <c r="W83">
         <v>0.008215520693043507</v>
@@ -15528,10 +15528,10 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84">
-        <v>0.003400325775146484</v>
+        <v>0.003800296783447266</v>
       </c>
       <c r="B84">
-        <v>0.004000377655029297</v>
+        <v>0.004200220108032227</v>
       </c>
       <c r="C84">
         <v>0.6913289349670122</v>
@@ -15588,10 +15588,10 @@
         <v>0.7704532077692761</v>
       </c>
       <c r="U84">
-        <v>0.0004898819214545809</v>
+        <v>0.000400018706226792</v>
       </c>
       <c r="V84">
-        <v>2.336015455992869e-07</v>
+        <v>0.0003999471771024199</v>
       </c>
       <c r="W84">
         <v>0.01111294857658628</v>
@@ -15602,10 +15602,10 @@
     </row>
     <row r="85" spans="1:24">
       <c r="A85">
-        <v>0.003400421142578125</v>
+        <v>0.003800344467163086</v>
       </c>
       <c r="B85">
-        <v>0.004000282287597657</v>
+        <v>0.004200220108032227</v>
       </c>
       <c r="C85">
         <v>0.6960414703110274</v>
@@ -15662,10 +15662,10 @@
         <v>1</v>
       </c>
       <c r="U85">
-        <v>0.0004899987222241536</v>
+        <v>0.00039992333879854</v>
       </c>
       <c r="V85">
-        <v>1.168007727996434e-07</v>
+        <v>0.0003999471771024199</v>
       </c>
       <c r="W85">
         <v>0.005191656026055264</v>
@@ -15676,10 +15676,10 @@
     </row>
     <row r="86" spans="1:24">
       <c r="A86">
-        <v>0.003000259399414062</v>
+        <v>0.003200101852416992</v>
       </c>
       <c r="B86">
-        <v>0.004600334167480469</v>
+        <v>0.00500035285949707</v>
       </c>
       <c r="C86">
         <v>0.7822808671065034</v>
@@ -15736,10 +15736,10 @@
         <v>0.8346085932901707</v>
       </c>
       <c r="U86">
-        <v>1.507891492923917e-07</v>
+        <v>0.00039992333879854</v>
       </c>
       <c r="V86">
-        <v>0.000490018183218949</v>
+        <v>0.0006325604992540681</v>
       </c>
       <c r="W86">
         <v>0.0158748850454039</v>
@@ -15750,10 +15750,10 @@
     </row>
     <row r="87" spans="1:24">
       <c r="A87">
-        <v>0.003400468826293945</v>
+        <v>0.003400135040283203</v>
       </c>
       <c r="B87">
-        <v>0.004400396347045898</v>
+        <v>0.004800319671630859</v>
       </c>
       <c r="C87">
         <v>0.7855796418473139</v>
@@ -15810,10 +15810,10 @@
         <v>1</v>
       </c>
       <c r="U87">
-        <v>0.0004898624411217045</v>
+        <v>0.0004900376480808073</v>
       </c>
       <c r="V87">
-        <v>0.0004899597886342959</v>
+        <v>0.0003999471771024199</v>
       </c>
       <c r="W87">
         <v>0.01636324016767753</v>
@@ -15824,10 +15824,10 @@
     </row>
     <row r="88" spans="1:24">
       <c r="A88">
-        <v>0.003600311279296875</v>
+        <v>0.004000186920166016</v>
       </c>
       <c r="B88">
-        <v>0.004000520706176758</v>
+        <v>0.004400300979614258</v>
       </c>
       <c r="C88">
         <v>0.6908576814326107</v>
@@ -15884,10 +15884,10 @@
         <v>0.7557386698057681</v>
       </c>
       <c r="U88">
-        <v>0.0004898429878647236</v>
+        <v>0</v>
       </c>
       <c r="V88">
-        <v>1.9073486328125e-07</v>
+        <v>0.0004900376480808073</v>
       </c>
       <c r="W88">
         <v>0.0148395682814703</v>
@@ -15898,10 +15898,10 @@
     </row>
     <row r="89" spans="1:24">
       <c r="A89">
-        <v>0.003400278091430664</v>
+        <v>0.003800106048583984</v>
       </c>
       <c r="B89">
-        <v>0.004600429534912109</v>
+        <v>0.004800271987915039</v>
       </c>
       <c r="C89">
         <v>0.7016965127238455</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="U89">
-        <v>0.0004899208473093903</v>
+        <v>0.0004000425445315194</v>
       </c>
       <c r="V89">
-        <v>0.0004899987222241536</v>
+        <v>0.0004000425445315194</v>
       </c>
       <c r="W89">
         <v>0.008997437596662838</v>
@@ -15972,10 +15972,10 @@
     </row>
     <row r="90" spans="1:24">
       <c r="A90">
-        <v>0.003000450134277344</v>
+        <v>0.003600215911865234</v>
       </c>
       <c r="B90">
-        <v>0.004800319671630859</v>
+        <v>0.004600334167480469</v>
       </c>
       <c r="C90">
         <v>0.7799245994344958</v>
@@ -16032,10 +16032,10 @@
         <v>0.8228369629193644</v>
       </c>
       <c r="U90">
-        <v>9.536743164062499e-08</v>
+        <v>0.0004898624875375237</v>
       </c>
       <c r="V90">
-        <v>0.0004000663757324219</v>
+        <v>0.0004899208705145337</v>
       </c>
       <c r="W90">
         <v>0.0093305525224254</v>
@@ -16046,10 +16046,10 @@
     </row>
     <row r="91" spans="1:24">
       <c r="A91">
-        <v>0.003000259399414062</v>
+        <v>0.003600263595581055</v>
       </c>
       <c r="B91">
-        <v>0.004600429534912109</v>
+        <v>0.004800271987915039</v>
       </c>
       <c r="C91">
         <v>0.7888784165881244</v>
@@ -16106,10 +16106,10 @@
         <v>1</v>
       </c>
       <c r="U91">
-        <v>1.507891492923917e-07</v>
+        <v>0.0004899014056540585</v>
       </c>
       <c r="V91">
-        <v>0.0008000254644364733</v>
+        <v>0.0004000425729502052</v>
       </c>
       <c r="W91">
         <v>0.01361894394215578</v>
@@ -16120,10 +16120,10 @@
     </row>
     <row r="92" spans="1:24">
       <c r="A92">
-        <v>0.003600311279296875</v>
+        <v>0.004000282287597657</v>
       </c>
       <c r="B92">
-        <v>0.004200315475463868</v>
+        <v>0.004600238800048828</v>
       </c>
       <c r="C92">
         <v>0.6903864278982093</v>
@@ -16180,10 +16180,10 @@
         <v>0.7410241318422601</v>
       </c>
       <c r="U92">
+        <v>1.168007727996434e-07</v>
+      </c>
+      <c r="V92">
         <v>0.0004899403160383115</v>
-      </c>
-      <c r="V92">
-        <v>0.000400018706226792</v>
       </c>
       <c r="W92">
         <v>0.01188798794948959</v>
@@ -16194,10 +16194,10 @@
     </row>
     <row r="93" spans="1:24">
       <c r="A93">
-        <v>0.003600215911865234</v>
+        <v>0.003600168228149414</v>
       </c>
       <c r="B93">
-        <v>0.004200410842895508</v>
+        <v>0.004800224304199218</v>
       </c>
       <c r="C93">
         <v>0.700282752120641</v>
@@ -16254,10 +16254,10 @@
         <v>1</v>
       </c>
       <c r="U93">
-        <v>0.0004899597886342959</v>
+        <v>0.000490018183218949</v>
       </c>
       <c r="V93">
-        <v>0.0004000902282460696</v>
+        <v>0.0004001379403725326</v>
       </c>
       <c r="W93">
         <v>0.0139963780747829</v>
@@ -16268,10 +16268,10 @@
     </row>
     <row r="94" spans="1:24">
       <c r="A94">
-        <v>0.003200292587280273</v>
+        <v>0.003600072860717773</v>
       </c>
       <c r="B94">
-        <v>0.00480046272277832</v>
+        <v>0.005400514602661133</v>
       </c>
       <c r="C94">
         <v>0.7799245994344958</v>
@@ -16328,10 +16328,10 @@
         <v>0.8122424955856387</v>
       </c>
       <c r="U94">
-        <v>0.0004000663757324219</v>
+        <v>0.0004899403160383115</v>
       </c>
       <c r="V94">
-        <v>0.0004001379119606201</v>
+        <v>0.0004899987222241536</v>
       </c>
       <c r="W94">
         <v>0.006017619237117024</v>
@@ -16342,10 +16342,10 @@
     </row>
     <row r="95" spans="1:24">
       <c r="A95">
-        <v>0.003200244903564453</v>
+        <v>0.003600215911865234</v>
       </c>
       <c r="B95">
-        <v>0.005000495910644531</v>
+        <v>0.005400228500366211</v>
       </c>
       <c r="C95">
         <v>0.7879359095193214</v>
@@ -16402,10 +16402,10 @@
         <v>1</v>
       </c>
       <c r="U95">
-        <v>0.0003999710367245498</v>
+        <v>0.0004898624411217045</v>
       </c>
       <c r="V95">
-        <v>1.9073486328125e-07</v>
+        <v>0.0004899403160383115</v>
       </c>
       <c r="W95">
         <v>0.00467638450395815</v>
@@ -16416,10 +16416,10 @@
     </row>
     <row r="96" spans="1:24">
       <c r="A96">
-        <v>0.003400421142578125</v>
+        <v>0.003600215911865234</v>
       </c>
       <c r="B96">
-        <v>0.0048004150390625</v>
+        <v>0.00520029067993164</v>
       </c>
       <c r="C96">
         <v>0.6922714420358153</v>
@@ -16476,10 +16476,10 @@
         <v>0.7422012948793408</v>
       </c>
       <c r="U96">
-        <v>0.0004899987222241536</v>
+        <v>0.0004899597886342959</v>
       </c>
       <c r="V96">
-        <v>0.0004001140736550456</v>
+        <v>0.0003999948892390431</v>
       </c>
       <c r="W96">
         <v>0.006674112474430548</v>
@@ -16490,10 +16490,10 @@
     </row>
     <row r="97" spans="1:24">
       <c r="A97">
-        <v>0.003600358963012695</v>
+        <v>0.003600120544433594</v>
       </c>
       <c r="B97">
-        <v>0.0048004150390625</v>
+        <v>0.00500030517578125</v>
       </c>
       <c r="C97">
         <v>0.7016965127238455</v>
@@ -16550,10 +16550,10 @@
         <v>1</v>
       </c>
       <c r="U97">
-        <v>0.0004898819214545809</v>
+        <v>0.0004899792418945042</v>
       </c>
       <c r="V97">
-        <v>0.0007483537202684933</v>
+        <v>2.336015455992869e-07</v>
       </c>
       <c r="W97">
         <v>0.01006779835142889</v>
@@ -16564,10 +16564,10 @@
     </row>
     <row r="98" spans="1:24">
       <c r="A98">
-        <v>0.003000259399414062</v>
+        <v>0.003000402450561524</v>
       </c>
       <c r="B98">
-        <v>0.00480046272277832</v>
+        <v>0.005600166320800781</v>
       </c>
       <c r="C98">
         <v>0.7733270499528746</v>
@@ -16624,10 +16624,10 @@
         <v>0.8040023543260741</v>
       </c>
       <c r="U98">
-        <v>1.507891492923917e-07</v>
+        <v>1.168007727996434e-07</v>
       </c>
       <c r="V98">
-        <v>0.0004001379119606201</v>
+        <v>0.0004899403160383116</v>
       </c>
       <c r="W98">
         <v>0.004762143774540459</v>
@@ -16638,10 +16638,10 @@
     </row>
     <row r="99" spans="1:24">
       <c r="A99">
-        <v>0.003000307083129883</v>
+        <v>0.003400135040283203</v>
       </c>
       <c r="B99">
-        <v>0.005000495910644531</v>
+        <v>0.005800437927246094</v>
       </c>
       <c r="C99">
         <v>0.7822808671065034</v>
@@ -16698,10 +16698,10 @@
         <v>1</v>
       </c>
       <c r="U99">
-        <v>9.536743164062499e-08</v>
+        <v>0.0004900376480808073</v>
       </c>
       <c r="V99">
-        <v>1.168007727996434e-07</v>
+        <v>0.0004001617431640625</v>
       </c>
       <c r="W99">
         <v>0.003280283026269344</v>
@@ -16712,10 +16712,10 @@
     </row>
     <row r="100" spans="1:24">
       <c r="A100">
-        <v>0.003800439834594727</v>
+        <v>0.003200149536132812</v>
       </c>
       <c r="B100">
-        <v>0.004400300979614258</v>
+        <v>0.00500030517578125</v>
       </c>
       <c r="C100">
         <v>0.6932139491046183</v>
@@ -16772,10 +16772,10 @@
         <v>0.7257210123602119</v>
       </c>
       <c r="U100">
-        <v>0.0004000902282460696</v>
+        <v>0.0004000187346471714</v>
       </c>
       <c r="V100">
-        <v>0.0004900376480808073</v>
+        <v>1.784161275279017e-07</v>
       </c>
       <c r="W100">
         <v>0.01350824956617009</v>
@@ -16786,10 +16786,10 @@
     </row>
     <row r="101" spans="1:24">
       <c r="A101">
-        <v>0.003600311279296875</v>
+        <v>0.004000234603881836</v>
       </c>
       <c r="B101">
-        <v>0.004400491714477539</v>
+        <v>0.005000257492065429</v>
       </c>
       <c r="C101">
         <v>0.7035815268614515</v>
@@ -16846,10 +16846,10 @@
         <v>1</v>
       </c>
       <c r="U101">
-        <v>0.0004900376712804196</v>
+        <v>0.000632409699322999</v>
       </c>
       <c r="V101">
-        <v>0.000489979265096882</v>
+        <v>0.0006324850929980568</v>
       </c>
       <c r="W101">
         <v>0.01060559646287146</v>
@@ -16860,10 +16860,10 @@
     </row>
     <row r="102" spans="1:24">
       <c r="A102">
-        <v>0.003600263595581055</v>
+        <v>0.003200149536132812</v>
       </c>
       <c r="B102">
-        <v>0.005800628662109375</v>
+        <v>0.005400228500366211</v>
       </c>
       <c r="C102">
         <v>0.7733270499528746</v>
@@ -16920,10 +16920,10 @@
         <v>0.8051795173631549</v>
       </c>
       <c r="U102">
-        <v>0.0008000254644364732</v>
+        <v>0.000400018706226792</v>
       </c>
       <c r="V102">
-        <v>0.001166326656435526</v>
+        <v>0.0004899403160383116</v>
       </c>
       <c r="W102">
         <v>0.00919165508026255</v>
@@ -16934,10 +16934,10 @@
     </row>
     <row r="103" spans="1:24">
       <c r="A103">
-        <v>0.003000307083129883</v>
+        <v>0.003400135040283203</v>
       </c>
       <c r="B103">
-        <v>0.005800580978393555</v>
+        <v>0.005800247192382812</v>
       </c>
       <c r="C103">
         <v>0.7822808671065034</v>
@@ -16994,10 +16994,10 @@
         <v>1</v>
       </c>
       <c r="U103">
-        <v>9.536743164062499e-08</v>
+        <v>0.0004899403160383116</v>
       </c>
       <c r="V103">
-        <v>0.0003999948608169695</v>
+        <v>0.0004000664041494148</v>
       </c>
       <c r="W103">
         <v>0.005700635248728676</v>
@@ -17008,10 +17008,10 @@
     </row>
     <row r="104" spans="1:24">
       <c r="A104">
-        <v>0.003400373458862305</v>
+        <v>0.003800058364868164</v>
       </c>
       <c r="B104">
-        <v>0.00480046272277832</v>
+        <v>0.005000495910644531</v>
       </c>
       <c r="C104">
         <v>0.6899151743638078</v>
@@ -17068,10 +17068,10 @@
         <v>0.731606827545615</v>
       </c>
       <c r="U104">
-        <v>0.0004899403160383116</v>
+        <v>0.000400018706226792</v>
       </c>
       <c r="V104">
-        <v>0.000400018706226792</v>
+        <v>0.000632409702918353</v>
       </c>
       <c r="W104">
         <v>0.01625804838615477</v>
@@ -17082,10 +17082,10 @@
     </row>
     <row r="105" spans="1:24">
       <c r="A105">
-        <v>0.003800439834594727</v>
+        <v>0.003600120544433594</v>
       </c>
       <c r="B105">
-        <v>0.0048004150390625</v>
+        <v>0.005400419235229492</v>
       </c>
       <c r="C105">
         <v>0.6979264844486334</v>
@@ -17142,10 +17142,10 @@
         <v>1</v>
       </c>
       <c r="U105">
-        <v>0.0004000902282460696</v>
+        <v>0.0004899792418945042</v>
       </c>
       <c r="V105">
-        <v>0.0007484811516771973</v>
+        <v>0.000489979265096882</v>
       </c>
       <c r="W105">
         <v>0.01278198471486259</v>
@@ -17156,10 +17156,10 @@
     </row>
     <row r="106" spans="1:24">
       <c r="A106">
-        <v>0.003000259399414062</v>
+        <v>0.003200197219848633</v>
       </c>
       <c r="B106">
-        <v>0.005000495910644531</v>
+        <v>0.005800390243530273</v>
       </c>
       <c r="C106">
         <v>0.7719132893496701</v>
@@ -17216,10 +17216,10 @@
         <v>0.7928193054738081</v>
       </c>
       <c r="U106">
-        <v>1.507891492923917e-07</v>
+        <v>0.000400233279389722</v>
       </c>
       <c r="V106">
-        <v>1.168007727996434e-07</v>
+        <v>0.0004001379119606201</v>
       </c>
       <c r="W106">
         <v>0.01338098392146771</v>
@@ -17230,10 +17230,10 @@
     </row>
     <row r="107" spans="1:24">
       <c r="A107">
-        <v>0.003200292587280273</v>
+        <v>0.003000211715698242</v>
       </c>
       <c r="B107">
-        <v>0.005400562286376953</v>
+        <v>0.005800247192382812</v>
       </c>
       <c r="C107">
         <v>0.7818096135721018</v>
@@ -17290,10 +17290,10 @@
         <v>1</v>
       </c>
       <c r="U107">
-        <v>0.0004000663757324219</v>
+        <v>9.536743164062499e-08</v>
       </c>
       <c r="V107">
-        <v>0.0004899597886342959</v>
+        <v>0.0003999472055278821</v>
       </c>
       <c r="W107">
         <v>0.007892488891801639</v>
@@ -17304,10 +17304,10 @@
     </row>
     <row r="108" spans="1:24">
       <c r="A108">
-        <v>0.003600406646728516</v>
+        <v>0.003600120544433594</v>
       </c>
       <c r="B108">
-        <v>0.005200433731079102</v>
+        <v>0.005400276184082032</v>
       </c>
       <c r="C108">
         <v>0.6908576814326107</v>
@@ -17364,10 +17364,10 @@
         <v>0.7180694526191878</v>
       </c>
       <c r="U108">
-        <v>0.0004899208705145337</v>
+        <v>0.0004898819214545809</v>
       </c>
       <c r="V108">
-        <v>0.0003999233672256965</v>
+        <v>0.0004899013824479931</v>
       </c>
       <c r="W108">
         <v>0.01893746511590425</v>
@@ -17378,10 +17378,10 @@
     </row>
     <row r="109" spans="1:24">
       <c r="A109">
-        <v>0.003600406646728516</v>
+        <v>0.003600072860717773</v>
       </c>
       <c r="B109">
-        <v>0.005200433731079102</v>
+        <v>0.005400466918945313</v>
       </c>
       <c r="C109">
         <v>0.6969839773798303</v>
@@ -17438,10 +17438,10 @@
         <v>1</v>
       </c>
       <c r="U109">
-        <v>0.0004899208705145337</v>
+        <v>0.0004899403160383116</v>
       </c>
       <c r="V109">
-        <v>0.00039992333879854</v>
+        <v>0.0004899403160383116</v>
       </c>
       <c r="W109">
         <v>0.01262861139782328</v>
@@ -17452,10 +17452,10 @@
     </row>
     <row r="110" spans="1:24">
       <c r="A110">
-        <v>0.002000236511230469</v>
+        <v>0.00220026969909668</v>
       </c>
       <c r="B110">
-        <v>0.0148015022277832</v>
+        <v>0.01680092811584473</v>
       </c>
       <c r="C110">
         <v>0.7803958529688972</v>
@@ -17512,10 +17512,10 @@
         <v>0.8940553266627428</v>
       </c>
       <c r="U110">
-        <v>1.168007727996434e-07</v>
+        <v>0.0004001140736550456</v>
       </c>
       <c r="V110">
-        <v>0.0004000664041494148</v>
+        <v>0.0007482772388520198</v>
       </c>
       <c r="W110">
         <v>0.009601399013930163</v>
@@ -17526,10 +17526,10 @@
     </row>
     <row r="111" spans="1:24">
       <c r="A111">
-        <v>0.002000236511230469</v>
+        <v>0.002000141143798828</v>
       </c>
       <c r="B111">
-        <v>0.01500153541564941</v>
+        <v>0.0188011646270752</v>
       </c>
       <c r="C111">
         <v>0.7860508953817154</v>
@@ -17586,10 +17586,10 @@
         <v>1</v>
       </c>
       <c r="U111">
-        <v>1.168007727996434e-07</v>
+        <v>9.536743164062499e-08</v>
       </c>
       <c r="V111">
-        <v>0</v>
+        <v>0.001166212175086575</v>
       </c>
       <c r="W111">
         <v>0.006878150584933749</v>
@@ -17600,10 +17600,10 @@
     </row>
     <row r="112" spans="1:24">
       <c r="A112">
-        <v>0.00200042724609375</v>
+        <v>0.002200031280517578</v>
       </c>
       <c r="B112">
-        <v>0.01320114135742187</v>
+        <v>0.01440091133117676</v>
       </c>
       <c r="C112">
         <v>0.6880301602262017</v>
@@ -17660,10 +17660,10 @@
         <v>0.8446144791053561</v>
       </c>
       <c r="U112">
-        <v>1.9073486328125e-07</v>
+        <v>0.0003999948608169696</v>
       </c>
       <c r="V112">
-        <v>0.001469820932645453</v>
+        <v>0.0008000373982433936</v>
       </c>
       <c r="W112">
         <v>0.007744986187587714</v>
@@ -17674,10 +17674,10 @@
     </row>
     <row r="113" spans="1:24">
       <c r="A113">
-        <v>0.002200222015380859</v>
+        <v>0.002200078964233398</v>
       </c>
       <c r="B113">
-        <v>0.01240124702453613</v>
+        <v>0.01460084915161133</v>
       </c>
       <c r="C113">
         <v>0.6894439208294062</v>
@@ -17734,10 +17734,10 @@
         <v>1</v>
       </c>
       <c r="U113">
-        <v>0.000400018706226792</v>
+        <v>0.0003999710083007813</v>
       </c>
       <c r="V113">
-        <v>0.000800061231219776</v>
+        <v>0.001019870262789951</v>
       </c>
       <c r="W113">
         <v>0.009486513536843513</v>
@@ -17748,10 +17748,10 @@
     </row>
     <row r="114" spans="1:24">
       <c r="A114">
-        <v>0.002000331878662109</v>
+        <v>0.002000188827514648</v>
       </c>
       <c r="B114">
-        <v>0.01980180740356445</v>
+        <v>0.022601318359375</v>
       </c>
       <c r="C114">
         <v>0.7803958529688972</v>
@@ -17808,10 +17808,10 @@
         <v>0.8711006474396704</v>
       </c>
       <c r="U114">
-        <v>1.507891492923917e-07</v>
+        <v>1.9073486328125e-07</v>
       </c>
       <c r="V114">
-        <v>0.0007483792082861202</v>
+        <v>0.001020001187006636</v>
       </c>
       <c r="W114">
         <v>0.0135776562103411</v>
@@ -17822,10 +17822,10 @@
     </row>
     <row r="115" spans="1:24">
       <c r="A115">
-        <v>0.002000188827514648</v>
+        <v>0.002200174331665039</v>
       </c>
       <c r="B115">
-        <v>0.01940202713012695</v>
+        <v>0.02220120429992676</v>
       </c>
       <c r="C115">
         <v>0.7865221489161168</v>
@@ -17882,10 +17882,10 @@
         <v>1</v>
       </c>
       <c r="U115">
-        <v>1.168007727996434e-07</v>
+        <v>0.0004000425445315194</v>
       </c>
       <c r="V115">
-        <v>0.0004898819214545809</v>
+        <v>0.002039791959163519</v>
       </c>
       <c r="W115">
         <v>0.01354395299414702</v>
@@ -17896,10 +17896,10 @@
     </row>
     <row r="116" spans="1:24">
       <c r="A116">
-        <v>0.002000188827514648</v>
+        <v>0.002800083160400391</v>
       </c>
       <c r="B116">
-        <v>0.01740183830261231</v>
+        <v>0.01880097389221191</v>
       </c>
       <c r="C116">
         <v>0.6913289349670122</v>
@@ -17956,10 +17956,10 @@
         <v>0.8034137728075338</v>
       </c>
       <c r="U116">
-        <v>1.9073486328125e-07</v>
+        <v>0.000748353705076902</v>
       </c>
       <c r="V116">
-        <v>0.0004899597886342959</v>
+        <v>0.00172052882698992</v>
       </c>
       <c r="W116">
         <v>0.007441417875980398</v>
@@ -17970,10 +17970,10 @@
     </row>
     <row r="117" spans="1:24">
       <c r="A117">
-        <v>0.002800226211547852</v>
+        <v>0.002400064468383789</v>
       </c>
       <c r="B117">
-        <v>0.01700177192687988</v>
+        <v>0.01960115432739258</v>
       </c>
       <c r="C117">
         <v>0.6946277097078228</v>
@@ -18030,10 +18030,10 @@
         <v>1</v>
       </c>
       <c r="U117">
-        <v>0.0009799584837890084</v>
+        <v>0.0004900571168092678</v>
       </c>
       <c r="V117">
-        <v>0.001095583368723319</v>
+        <v>0.0004899208705145337</v>
       </c>
       <c r="W117">
         <v>0.005121608588383867</v>
@@ -18044,10 +18044,10 @@
     </row>
     <row r="118" spans="1:24">
       <c r="A118">
-        <v>0.00200042724609375</v>
+        <v>0.002000093460083008</v>
       </c>
       <c r="B118">
-        <v>0.01980175971984863</v>
+        <v>0.02240133285522461</v>
       </c>
       <c r="C118">
         <v>0.7799245994344958</v>
@@ -18104,10 +18104,10 @@
         <v>0.8505002942907592</v>
       </c>
       <c r="U118">
-        <v>1.168007727996434e-07</v>
+        <v>0</v>
       </c>
       <c r="V118">
-        <v>0.0007483664507136169</v>
+        <v>0.001624989263142826</v>
       </c>
       <c r="W118">
         <v>0.004434779649725367</v>
@@ -18118,10 +18118,10 @@
     </row>
     <row r="119" spans="1:24">
       <c r="A119">
-        <v>0.002000141143798828</v>
+        <v>0.00240020751953125</v>
       </c>
       <c r="B119">
-        <v>0.02000212669372559</v>
+        <v>0.02220120429992676</v>
       </c>
       <c r="C119">
         <v>0.7832233741753063</v>
@@ -18178,10 +18178,10 @@
         <v>1</v>
       </c>
       <c r="U119">
-        <v>9.536743164062499e-08</v>
+        <v>0.0004899403160383116</v>
       </c>
       <c r="V119">
-        <v>0.0006325604812815834</v>
+        <v>0.003487484488808179</v>
       </c>
       <c r="W119">
         <v>0.008215520693043507</v>
@@ -18192,10 +18192,10 @@
     </row>
     <row r="120" spans="1:24">
       <c r="A120">
-        <v>0.00220026969909668</v>
+        <v>0.00240015983581543</v>
       </c>
       <c r="B120">
-        <v>0.01660165786743164</v>
+        <v>0.01720094680786133</v>
       </c>
       <c r="C120">
         <v>0.6913289349670122</v>
@@ -18252,10 +18252,10 @@
         <v>0.7704532077692761</v>
       </c>
       <c r="U120">
-        <v>0.0003999948608169696</v>
+        <v>0.0004898819214545809</v>
       </c>
       <c r="V120">
-        <v>0.000800061231219776</v>
+        <v>0.0007483282192290589</v>
       </c>
       <c r="W120">
         <v>0.01111294857658628</v>
@@ -18266,10 +18266,10 @@
     </row>
     <row r="121" spans="1:24">
       <c r="A121">
-        <v>0.00240015983581543</v>
+        <v>0.002200174331665039</v>
       </c>
       <c r="B121">
-        <v>0.01740164756774902</v>
+        <v>0.01820101737976074</v>
       </c>
       <c r="C121">
         <v>0.6960414703110274</v>
@@ -18326,10 +18326,10 @@
         <v>1</v>
       </c>
       <c r="U121">
-        <v>0.0004899792418945042</v>
+        <v>0.0003999233672256965</v>
       </c>
       <c r="V121">
-        <v>0.0008000373982433936</v>
+        <v>0.0009797346202343291</v>
       </c>
       <c r="W121">
         <v>0.005191656026055264</v>
@@ -18340,10 +18340,10 @@
     </row>
     <row r="122" spans="1:24">
       <c r="A122">
-        <v>0.002000188827514648</v>
+        <v>0.002600240707397461</v>
       </c>
       <c r="B122">
-        <v>0.02100214958190918</v>
+        <v>0.02100110054016113</v>
       </c>
       <c r="C122">
         <v>0.7822808671065034</v>
@@ -18400,10 +18400,10 @@
         <v>0.8346085932901707</v>
       </c>
       <c r="U122">
-        <v>1.168007727996434e-07</v>
+        <v>0.000490018183218949</v>
       </c>
       <c r="V122">
-        <v>0.001414414522967547</v>
+        <v>0.001095409256563694</v>
       </c>
       <c r="W122">
         <v>0.0158748850454039</v>
@@ -18414,10 +18414,10 @@
     </row>
     <row r="123" spans="1:24">
       <c r="A123">
-        <v>0.002000141143798828</v>
+        <v>0.002800130844116211</v>
       </c>
       <c r="B123">
-        <v>0.01980204582214356</v>
+        <v>0.02400145530700683</v>
       </c>
       <c r="C123">
         <v>0.7855796418473139</v>
@@ -18474,10 +18474,10 @@
         <v>1</v>
       </c>
       <c r="U123">
-        <v>9.536743164062499e-08</v>
+        <v>0.000400018706226792</v>
       </c>
       <c r="V123">
-        <v>0.00039992333879854</v>
+        <v>0.001414212222918656</v>
       </c>
       <c r="W123">
         <v>0.01636324016767753</v>
@@ -18488,10 +18488,10 @@
     </row>
     <row r="124" spans="1:24">
       <c r="A124">
-        <v>0.00240020751953125</v>
+        <v>0.002200078964233398</v>
       </c>
       <c r="B124">
-        <v>0.01660161018371582</v>
+        <v>0.01900110244750976</v>
       </c>
       <c r="C124">
         <v>0.6908576814326107</v>
@@ -18548,10 +18548,10 @@
         <v>0.7557386698057681</v>
       </c>
       <c r="U124">
-        <v>0.0004900376480808073</v>
+        <v>0.0003999710083007813</v>
       </c>
       <c r="V124">
-        <v>0.0008002161992994369</v>
+        <v>0.001789017948464759</v>
       </c>
       <c r="W124">
         <v>0.0148395682814703</v>
@@ -18562,10 +18562,10 @@
     </row>
     <row r="125" spans="1:24">
       <c r="A125">
-        <v>0.00240020751953125</v>
+        <v>0.002200126647949219</v>
       </c>
       <c r="B125">
-        <v>0.01740174293518066</v>
+        <v>0.01820096969604492</v>
       </c>
       <c r="C125">
         <v>0.7016965127238455</v>
@@ -18622,10 +18622,10 @@
         <v>1</v>
       </c>
       <c r="U125">
-        <v>0.0004899403160383116</v>
+        <v>0.0003999471771024199</v>
       </c>
       <c r="V125">
-        <v>0.0004900376480808073</v>
+        <v>0.000748430175641352</v>
       </c>
       <c r="W125">
         <v>0.008997437596662838</v>
@@ -18636,10 +18636,10 @@
     </row>
     <row r="126" spans="1:24">
       <c r="A126">
-        <v>0.00220026969909668</v>
+        <v>0.002000093460083008</v>
       </c>
       <c r="B126">
-        <v>0.02040200233459473</v>
+        <v>0.02380118370056152</v>
       </c>
       <c r="C126">
         <v>0.7799245994344958</v>
@@ -18696,10 +18696,10 @@
         <v>0.8228369629193644</v>
       </c>
       <c r="U126">
-        <v>0.0003999948892390431</v>
+        <v>0</v>
       </c>
       <c r="V126">
-        <v>0.0008001089291441989</v>
+        <v>0.003815932618026756</v>
       </c>
       <c r="W126">
         <v>0.0093305525224254</v>
@@ -18710,10 +18710,10 @@
     </row>
     <row r="127" spans="1:24">
       <c r="A127">
-        <v>0.002000188827514648</v>
+        <v>0.002200174331665039</v>
       </c>
       <c r="B127">
-        <v>0.0196019172668457</v>
+        <v>0.02040119171142578</v>
       </c>
       <c r="C127">
         <v>0.7888784165881244</v>
@@ -18770,10 +18770,10 @@
         <v>1</v>
       </c>
       <c r="U127">
-        <v>1.168007727996434e-07</v>
+        <v>0.00039992333879854</v>
       </c>
       <c r="V127">
-        <v>0.0004900571168092678</v>
+        <v>0.001019711289294469</v>
       </c>
       <c r="W127">
         <v>0.01361894394215578</v>
@@ -18784,10 +18784,10 @@
     </row>
     <row r="128" spans="1:24">
       <c r="A128">
-        <v>0.0022003173828125</v>
+        <v>0.00280003547668457</v>
       </c>
       <c r="B128">
-        <v>0.01740164756774902</v>
+        <v>0.01780104637145996</v>
       </c>
       <c r="C128">
         <v>0.6903864278982093</v>
@@ -18844,10 +18844,10 @@
         <v>0.7410241318422601</v>
       </c>
       <c r="U128">
-        <v>0.0004000902566613683</v>
+        <v>0.0007482772388520198</v>
       </c>
       <c r="V128">
-        <v>0.0008000373982433937</v>
+        <v>0.0004000664041494148</v>
       </c>
       <c r="W128">
         <v>0.01188798794948959</v>
@@ -18858,10 +18858,10 @@
     </row>
     <row r="129" spans="1:24">
       <c r="A129">
-        <v>0.002000236511230469</v>
+        <v>0.003200197219848633</v>
       </c>
       <c r="B129">
-        <v>0.01820187568664551</v>
+        <v>0.01920108795166016</v>
       </c>
       <c r="C129">
         <v>0.700282752120641</v>
@@ -18918,10 +18918,10 @@
         <v>1</v>
       </c>
       <c r="U129">
-        <v>1.9073486328125e-07</v>
+        <v>0.0003999948608169696</v>
       </c>
       <c r="V129">
-        <v>0.0009799487549834581</v>
+        <v>0.0004000425445315194</v>
       </c>
       <c r="W129">
         <v>0.0139963780747829</v>
@@ -18932,10 +18932,10 @@
     </row>
     <row r="130" spans="1:24">
       <c r="A130">
-        <v>0.002000188827514648</v>
+        <v>0.001800155639648437</v>
       </c>
       <c r="B130">
-        <v>0.02040195465087891</v>
+        <v>0.0222012996673584</v>
       </c>
       <c r="C130">
         <v>0.7799245994344958</v>
@@ -18992,10 +18992,10 @@
         <v>0.8122424955856387</v>
       </c>
       <c r="U130">
-        <v>1.168007727996434e-07</v>
+        <v>0.0004001140736550456</v>
       </c>
       <c r="V130">
-        <v>0.00101992638064049</v>
+        <v>0.002638384004084878</v>
       </c>
       <c r="W130">
         <v>0.006017619237117024</v>
@@ -19006,10 +19006,10 @@
     </row>
     <row r="131" spans="1:24">
       <c r="A131">
-        <v>0.002000141143798828</v>
+        <v>0.002800226211547852</v>
       </c>
       <c r="B131">
-        <v>0.02020206451416016</v>
+        <v>0.02180118560791016</v>
       </c>
       <c r="C131">
         <v>0.7879359095193214</v>
@@ -19066,10 +19066,10 @@
         <v>1</v>
       </c>
       <c r="U131">
-        <v>9.536743164062499e-08</v>
+        <v>0.0007485193875011386</v>
       </c>
       <c r="V131">
-        <v>0.00074841743108988</v>
+        <v>0.001599991329335324</v>
       </c>
       <c r="W131">
         <v>0.00467638450395815</v>
@@ -19080,10 +19080,10 @@
     </row>
     <row r="132" spans="1:24">
       <c r="A132">
-        <v>0.002000188827514648</v>
+        <v>0.002200031280517578</v>
       </c>
       <c r="B132">
-        <v>0.01760168075561524</v>
+        <v>0.01860113143920899</v>
       </c>
       <c r="C132">
         <v>0.6922714420358153</v>
@@ -19140,10 +19140,10 @@
         <v>0.7422012948793408</v>
       </c>
       <c r="U132">
-        <v>1.168007727996434e-07</v>
+        <v>0.0003999948892390431</v>
       </c>
       <c r="V132">
-        <v>0.001019860919175633</v>
+        <v>0.0004900376480808073</v>
       </c>
       <c r="W132">
         <v>0.006674112474430548</v>
@@ -19154,10 +19154,10 @@
     </row>
     <row r="133" spans="1:24">
       <c r="A133">
-        <v>0.002600288391113281</v>
+        <v>0.00260009765625</v>
       </c>
       <c r="B133">
-        <v>0.01760182380676269</v>
+        <v>0.0188011646270752</v>
       </c>
       <c r="C133">
         <v>0.7016965127238455</v>
@@ -19214,10 +19214,10 @@
         <v>1</v>
       </c>
       <c r="U133">
-        <v>0.000800061231219776</v>
+        <v>0.0008000254644364732</v>
       </c>
       <c r="V133">
-        <v>0.0008001208389723095</v>
+        <v>0.001469736581330888</v>
       </c>
       <c r="W133">
         <v>0.01006779835142889</v>
@@ -19231,7 +19231,7 @@
         <v>0.002200174331665039</v>
       </c>
       <c r="B134">
-        <v>0.02080211639404297</v>
+        <v>0.02200121879577637</v>
       </c>
       <c r="C134">
         <v>0.7733270499528746</v>
@@ -19288,10 +19288,10 @@
         <v>0.8040023543260741</v>
       </c>
       <c r="U134">
-        <v>0.0004000425445315194</v>
+        <v>0.0003999233956528511</v>
       </c>
       <c r="V134">
-        <v>0.001600098612588688</v>
+        <v>0.002097829382853214</v>
       </c>
       <c r="W134">
         <v>0.004762143774540459</v>
@@ -19302,10 +19302,10 @@
     </row>
     <row r="135" spans="1:24">
       <c r="A135">
-        <v>0.0022003173828125</v>
+        <v>0.00240025520324707</v>
       </c>
       <c r="B135">
-        <v>0.02000188827514648</v>
+        <v>0.02240118980407715</v>
       </c>
       <c r="C135">
         <v>0.7822808671065034</v>
@@ -19362,10 +19362,10 @@
         <v>1</v>
       </c>
       <c r="U135">
-        <v>0.0003999710367245498</v>
+        <v>0.0004899987222241536</v>
       </c>
       <c r="V135">
-        <v>0.000632409710109061</v>
+        <v>0.001854779524164106</v>
       </c>
       <c r="W135">
         <v>0.003280283026269344</v>
@@ -19376,10 +19376,10 @@
     </row>
     <row r="136" spans="1:24">
       <c r="A136">
-        <v>0.002400350570678711</v>
+        <v>0.002000141143798828</v>
       </c>
       <c r="B136">
-        <v>0.01760168075561524</v>
+        <v>0.0186011791229248</v>
       </c>
       <c r="C136">
         <v>0.6932139491046183</v>
@@ -19436,10 +19436,10 @@
         <v>0.7257210123602119</v>
       </c>
       <c r="U136">
-        <v>0.0004899208705145337</v>
+        <v>9.536743164062499e-08</v>
       </c>
       <c r="V136">
-        <v>0.0008000493205043225</v>
+        <v>0.0007999539459686984</v>
       </c>
       <c r="W136">
         <v>0.01350824956617009</v>
@@ -19450,10 +19450,10 @@
     </row>
     <row r="137" spans="1:24">
       <c r="A137">
-        <v>0.002200222015380859</v>
+        <v>0.002400064468383789</v>
       </c>
       <c r="B137">
-        <v>0.01780171394348145</v>
+        <v>0.0188011646270752</v>
       </c>
       <c r="C137">
         <v>0.7035815268614515</v>
@@ -19510,10 +19510,10 @@
         <v>1</v>
       </c>
       <c r="U137">
-        <v>0.0004000187346471714</v>
+        <v>0.0004898624411217045</v>
       </c>
       <c r="V137">
-        <v>0.0004000425729502052</v>
+        <v>0.001166334832548514</v>
       </c>
       <c r="W137">
         <v>0.01060559646287146</v>
@@ -19524,10 +19524,10 @@
     </row>
     <row r="138" spans="1:24">
       <c r="A138">
-        <v>0.002000141143798828</v>
+        <v>0.00240015983581543</v>
       </c>
       <c r="B138">
-        <v>0.02100205421447754</v>
+        <v>0.0216012954711914</v>
       </c>
       <c r="C138">
         <v>0.7733270499528746</v>
@@ -19584,10 +19584,10 @@
         <v>0.8051795173631549</v>
       </c>
       <c r="U138">
-        <v>9.536743164062499e-08</v>
+        <v>0.000489979265096882</v>
       </c>
       <c r="V138">
-        <v>0.001265045574728604</v>
+        <v>0.001356543450872581</v>
       </c>
       <c r="W138">
         <v>0.00919165508026255</v>
@@ -19598,10 +19598,10 @@
     </row>
     <row r="139" spans="1:24">
       <c r="A139">
-        <v>0.002000141143798828</v>
+        <v>0.002000188827514648</v>
       </c>
       <c r="B139">
-        <v>0.02040209770202637</v>
+        <v>0.02280125617980957</v>
       </c>
       <c r="C139">
         <v>0.7822808671065034</v>
@@ -19658,10 +19658,10 @@
         <v>1</v>
       </c>
       <c r="U139">
-        <v>9.536743164062499e-08</v>
+        <v>1.168007727996434e-07</v>
       </c>
       <c r="V139">
-        <v>0.0004899597886342959</v>
+        <v>0.002638210492184895</v>
       </c>
       <c r="W139">
         <v>0.005700635248728676</v>
@@ -19672,10 +19672,10 @@
     </row>
     <row r="140" spans="1:24">
       <c r="A140">
-        <v>0.002400302886962891</v>
+        <v>0.00240020751953125</v>
       </c>
       <c r="B140">
-        <v>0.01700167655944824</v>
+        <v>0.01760091781616211</v>
       </c>
       <c r="C140">
         <v>0.6899151743638078</v>
@@ -19732,10 +19732,10 @@
         <v>0.731606827545615</v>
       </c>
       <c r="U140">
-        <v>0.0004899597886342959</v>
+        <v>0.0004899403160383116</v>
       </c>
       <c r="V140">
-        <v>0.0006324851073777583</v>
+        <v>0.0004899987222241537</v>
       </c>
       <c r="W140">
         <v>0.01625804838615477</v>
@@ -19746,10 +19746,10 @@
     </row>
     <row r="141" spans="1:24">
       <c r="A141">
-        <v>0.002200222015380859</v>
+        <v>0.00260009765625</v>
       </c>
       <c r="B141">
-        <v>0.01800174713134766</v>
+        <v>0.01920113563537598</v>
       </c>
       <c r="C141">
         <v>0.6979264844486334</v>
@@ -19806,10 +19806,10 @@
         <v>1</v>
       </c>
       <c r="U141">
-        <v>0.000400018706226792</v>
+        <v>0.0004899013824479931</v>
       </c>
       <c r="V141">
-        <v>0.0008946289271592844</v>
+        <v>0.001326891630279187</v>
       </c>
       <c r="W141">
         <v>0.01278198471486259</v>
@@ -19820,10 +19820,10 @@
     </row>
     <row r="142" spans="1:24">
       <c r="A142">
-        <v>0.002000236511230469</v>
+        <v>0.002800083160400391</v>
       </c>
       <c r="B142">
-        <v>0.02140226364135742</v>
+        <v>0.02140126228332519</v>
       </c>
       <c r="C142">
         <v>0.7719132893496701</v>
@@ -19880,10 +19880,10 @@
         <v>0.7928193054738081</v>
       </c>
       <c r="U142">
-        <v>1.168007727996434e-07</v>
+        <v>0.00074841743108988</v>
       </c>
       <c r="V142">
-        <v>0.00195993643775713</v>
+        <v>0.001356416897511739</v>
       </c>
       <c r="W142">
         <v>0.01338098392146771</v>
@@ -19894,10 +19894,10 @@
     </row>
     <row r="143" spans="1:24">
       <c r="A143">
-        <v>0.002000188827514648</v>
+        <v>0.002000093460083008</v>
       </c>
       <c r="B143">
-        <v>0.02000203132629395</v>
+        <v>0.0216012954711914</v>
       </c>
       <c r="C143">
         <v>0.7818096135721018</v>
@@ -19954,10 +19954,10 @@
         <v>1</v>
       </c>
       <c r="U143">
-        <v>1.168007727996434e-07</v>
+        <v>0</v>
       </c>
       <c r="V143">
-        <v>0.0006324850929980568</v>
+        <v>0.000800061231219776</v>
       </c>
       <c r="W143">
         <v>0.007892488891801639</v>
@@ -19968,10 +19968,10 @@
     </row>
     <row r="144" spans="1:24">
       <c r="A144">
-        <v>0.00220026969909668</v>
+        <v>0.002400112152099609</v>
       </c>
       <c r="B144">
-        <v>0.01720170974731445</v>
+        <v>0.01840100288391113</v>
       </c>
       <c r="C144">
         <v>0.6908576814326107</v>
@@ -20028,10 +20028,10 @@
         <v>0.7180694526191878</v>
       </c>
       <c r="U144">
-        <v>0.0003999948892390431</v>
+        <v>0.0004899208473093903</v>
       </c>
       <c r="V144">
-        <v>0.0009799487549834579</v>
+        <v>0.001019842216083695</v>
       </c>
       <c r="W144">
         <v>0.01893746511590425</v>
@@ -20042,10 +20042,10 @@
     </row>
     <row r="145" spans="1:24">
       <c r="A145">
-        <v>0.00240025520324707</v>
+        <v>0.002200126647949219</v>
       </c>
       <c r="B145">
-        <v>0.01840181350708008</v>
+        <v>0.0188011646270752</v>
       </c>
       <c r="C145">
         <v>0.6969839773798303</v>
@@ -20102,10 +20102,10 @@
         <v>1</v>
       </c>
       <c r="U145">
-        <v>0.0004899987222241536</v>
+        <v>0.0004000663757324219</v>
       </c>
       <c r="V145">
-        <v>0.0004900182064194829</v>
+        <v>0.0004000425445315194</v>
       </c>
       <c r="W145">
         <v>0.01262861139782328</v>
